--- a/Table_Calib.xlsx
+++ b/Table_Calib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Lopez\PycharmProjects\ProjectJP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE9FB762-5AF8-4D41-8123-D2FE1BAF8CB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57868C94-D9D5-4B00-BDB7-EB26E737C539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="27615" yWindow="1920" windowWidth="32700" windowHeight="11385" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
+    <workbookView xWindow="15" yWindow="15" windowWidth="21915" windowHeight="13350" activeTab="1" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
   </bookViews>
   <sheets>
     <sheet name="X_axis" sheetId="1" r:id="rId1"/>
@@ -109,8 +109,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{965369DB-BED0-42DC-AAC8-BD06724B06AC}" name="Table13" displayName="Table13" ref="A1:B17" totalsRowShown="0">
-  <autoFilter ref="A1:B17" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{965369DB-BED0-42DC-AAC8-BD06724B06AC}" name="Table13" displayName="Table13" ref="A1:B26" totalsRowShown="0">
+  <autoFilter ref="A1:B26" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{335A7B4B-92B6-4E24-AD36-25C598C5B0EC}" name="Autocad_Measure"/>
     <tableColumn id="2" xr3:uid="{1CC8CFB9-9420-4E38-9AD2-B9CDF9A463CB}" name="Real_Measure">
@@ -440,8 +440,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151071F9-3A5A-49B6-91D3-FF72600E8A88}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -471,7 +471,7 @@
         <v>500</v>
       </c>
       <c r="B3">
-        <v>700</v>
+        <v>525</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -479,8 +479,7 @@
         <v>1000</v>
       </c>
       <c r="B4">
-        <f>B3+210</f>
-        <v>910</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -488,8 +487,7 @@
         <v>1500</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B18" si="0">B4+210</f>
-        <v>1120</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -497,8 +495,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>1330</v>
+        <v>2118</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -506,8 +503,7 @@
         <v>2500</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1540</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -515,8 +511,7 @@
         <v>3000</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>3207</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -524,8 +519,7 @@
         <v>3500</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>1960</v>
+        <v>3751</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -533,8 +527,7 @@
         <v>4000</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>2170</v>
+        <v>4304</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -542,8 +535,7 @@
         <v>4500</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>2380</v>
+        <v>4854</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -551,8 +543,7 @@
         <v>5000</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>2590</v>
+        <v>5418</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -560,8 +551,7 @@
         <v>5500</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>2800</v>
+        <v>5980</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -569,8 +559,7 @@
         <v>6000</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>3010</v>
+        <v>6560</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -578,8 +567,7 @@
         <v>6500</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>3220</v>
+        <v>7136</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -587,8 +575,7 @@
         <v>7000</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>3430</v>
+        <v>7728</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -596,8 +583,8 @@
         <v>7500</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>3640</v>
+        <f>B16+550</f>
+        <v>8278</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -605,8 +592,8 @@
         <v>8000</v>
       </c>
       <c r="B18">
-        <f t="shared" si="0"/>
-        <v>3850</v>
+        <f>B17+550</f>
+        <v>8828</v>
       </c>
     </row>
   </sheetData>
@@ -619,10 +606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4773F7A4-FCA6-46D8-B7F7-454AF84B3CD1}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27:XFD29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -641,145 +628,202 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>200</v>
+        <v>0</v>
       </c>
       <c r="B2">
-        <v>700</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>400</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <f>B2+210</f>
-        <v>910</v>
+        <v>97</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>600</v>
+        <v>200</v>
       </c>
       <c r="B4">
-        <f t="shared" ref="B4:B17" si="0">B3+210</f>
-        <v>1120</v>
+        <v>204</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>800</v>
+        <v>300</v>
       </c>
       <c r="B5">
-        <f t="shared" si="0"/>
-        <v>1330</v>
+        <v>305</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>1000</v>
+        <v>400</v>
       </c>
       <c r="B6">
-        <f t="shared" si="0"/>
-        <v>1540</v>
+        <v>417</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>1200</v>
+        <v>500</v>
       </c>
       <c r="B7">
-        <f t="shared" si="0"/>
-        <v>1750</v>
+        <v>518</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>1400</v>
+        <v>600</v>
       </c>
       <c r="B8">
-        <f t="shared" si="0"/>
-        <v>1960</v>
+        <v>625</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>1600</v>
+        <v>700</v>
       </c>
       <c r="B9">
-        <f t="shared" si="0"/>
-        <v>2170</v>
+        <v>724</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>1800</v>
+        <v>800</v>
       </c>
       <c r="B10">
-        <f t="shared" si="0"/>
-        <v>2380</v>
+        <v>827</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>2000</v>
+        <v>900</v>
       </c>
       <c r="B11">
-        <f t="shared" si="0"/>
-        <v>2590</v>
+        <v>938</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>2200</v>
+        <v>1000</v>
       </c>
       <c r="B12">
-        <f t="shared" si="0"/>
-        <v>2800</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>2400</v>
+        <v>1100</v>
       </c>
       <c r="B13">
-        <f t="shared" si="0"/>
-        <v>3010</v>
+        <v>1140</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>2600</v>
+        <v>1200</v>
       </c>
       <c r="B14">
-        <f t="shared" si="0"/>
-        <v>3220</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>2800</v>
+        <v>1300</v>
       </c>
       <c r="B15">
-        <f t="shared" si="0"/>
-        <v>3430</v>
+        <v>1350</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>3000</v>
+        <v>1400</v>
       </c>
       <c r="B16">
-        <f t="shared" si="0"/>
-        <v>3640</v>
+        <v>1448</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>3200</v>
+        <v>1500</v>
       </c>
       <c r="B17">
-        <f t="shared" si="0"/>
-        <v>3850</v>
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2448</v>
       </c>
     </row>
   </sheetData>

--- a/Table_Calib.xlsx
+++ b/Table_Calib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Lopez\PycharmProjects\ProjectJP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57868C94-D9D5-4B00-BDB7-EB26E737C539}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD97CC58-9D4A-4D9A-86E6-DFDF137006CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="15" yWindow="15" windowWidth="21915" windowHeight="13350" activeTab="1" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
   </bookViews>
@@ -109,8 +109,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{965369DB-BED0-42DC-AAC8-BD06724B06AC}" name="Table13" displayName="Table13" ref="A1:B26" totalsRowShown="0">
-  <autoFilter ref="A1:B26" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{965369DB-BED0-42DC-AAC8-BD06724B06AC}" name="Table13" displayName="Table13" ref="A1:B29" totalsRowShown="0">
+  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{335A7B4B-92B6-4E24-AD36-25C598C5B0EC}" name="Autocad_Measure"/>
     <tableColumn id="2" xr3:uid="{1CC8CFB9-9420-4E38-9AD2-B9CDF9A463CB}" name="Real_Measure">
@@ -606,10 +606,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4773F7A4-FCA6-46D8-B7F7-454AF84B3CD1}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:XFD29"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -826,6 +826,33 @@
         <v>2448</v>
       </c>
     </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <f>B26+100</f>
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <f>B27+210</f>
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <f>B28+210</f>
+        <v>2968</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">

--- a/Table_Calib.xlsx
+++ b/Table_Calib.xlsx
@@ -8,13 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Lopez\PycharmProjects\ProjectJP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD97CC58-9D4A-4D9A-86E6-DFDF137006CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E83DAA-454F-4740-AF9E-702F52F83C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="15" yWindow="15" windowWidth="21915" windowHeight="13350" activeTab="1" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
+    <workbookView xWindow="5940" yWindow="765" windowWidth="37515" windowHeight="11385" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
   </bookViews>
   <sheets>
     <sheet name="X_axis" sheetId="1" r:id="rId1"/>
     <sheet name="Y_axis" sheetId="2" r:id="rId2"/>
+    <sheet name="X_axis_RP" sheetId="3" r:id="rId3"/>
+    <sheet name="Y_axis_RP" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
   <si>
     <t>Autocad_Measure</t>
   </si>
@@ -114,6 +116,30 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{335A7B4B-92B6-4E24-AD36-25C598C5B0EC}" name="Autocad_Measure"/>
     <tableColumn id="2" xr3:uid="{1CC8CFB9-9420-4E38-9AD2-B9CDF9A463CB}" name="Real_Measure">
+      <calculatedColumnFormula>B1+210</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98AAC780-53A5-441E-AC0C-EB3955391959}" name="Table14" displayName="Table14" ref="A1:B18" totalsRowShown="0">
+  <autoFilter ref="A1:B18" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{B0369C10-E0D0-4A97-BA65-65775B5F5ED5}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{677063B0-7522-427B-B29E-9535C0197CC9}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CC0FFF9B-4C8D-4AF5-B142-346F6116A4C6}" name="Table135" displayName="Table135" ref="A1:B29" totalsRowShown="0">
+  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{6C934D0D-47DC-496E-9492-3B38DFEB4421}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{7B4429AF-ABB5-4957-BE8B-8323AFE7E947}" name="Real_Measure">
       <calculatedColumnFormula>B1+210</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -440,8 +466,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151071F9-3A5A-49B6-91D3-FF72600E8A88}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -608,8 +634,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4773F7A4-FCA6-46D8-B7F7-454AF84B3CD1}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -855,6 +881,434 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2:B27" calculatedColumn="1"/>
+  </ignoredErrors>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A648D3-CA9B-4868-9F1D-6C476990B8DF}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1500</v>
+      </c>
+      <c r="B5">
+        <v>1580</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6">
+        <v>2118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2500</v>
+      </c>
+      <c r="B7">
+        <v>2657</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3000</v>
+      </c>
+      <c r="B8">
+        <v>3207</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3500</v>
+      </c>
+      <c r="B9">
+        <v>3751</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4000</v>
+      </c>
+      <c r="B10">
+        <v>4304</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4500</v>
+      </c>
+      <c r="B11">
+        <v>4854</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5000</v>
+      </c>
+      <c r="B12">
+        <v>5418</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5500</v>
+      </c>
+      <c r="B13">
+        <v>5980</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6000</v>
+      </c>
+      <c r="B14">
+        <v>6560</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6500</v>
+      </c>
+      <c r="B15">
+        <v>7136</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7000</v>
+      </c>
+      <c r="B16">
+        <v>7728</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7500</v>
+      </c>
+      <c r="B17">
+        <f>B16+550</f>
+        <v>8278</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8000</v>
+      </c>
+      <c r="B18">
+        <f>B17+550</f>
+        <v>8828</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB97CA96-0EDD-44F7-A09C-5888F725DB2E}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>827</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>1350</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>1448</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1548</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1648</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1755</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1853</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1954</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>2048</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>2150</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>2255</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2354</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2448</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <f>B26+100</f>
+        <v>2548</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <f>B27+210</f>
+        <v>2758</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <f>B28+210</f>
+        <v>2968</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>

--- a/Table_Calib.xlsx
+++ b/Table_Calib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Lopez\PycharmProjects\ProjectJP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31E83DAA-454F-4740-AF9E-702F52F83C00}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CD5B2D-4EFC-4A41-A36F-4C19DD578356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5940" yWindow="765" windowWidth="37515" windowHeight="11385" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
   </bookViews>
   <sheets>
     <sheet name="X_axis" sheetId="1" r:id="rId1"/>
@@ -139,9 +139,7 @@
   <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6C934D0D-47DC-496E-9492-3B38DFEB4421}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{7B4429AF-ABB5-4957-BE8B-8323AFE7E947}" name="Real_Measure">
-      <calculatedColumnFormula>B1+210</calculatedColumnFormula>
-    </tableColumn>
+    <tableColumn id="2" xr3:uid="{7B4429AF-ABB5-4957-BE8B-8323AFE7E947}" name="Real_Measure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -466,7 +464,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{151071F9-3A5A-49B6-91D3-FF72600E8A88}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
@@ -634,8 +632,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4773F7A4-FCA6-46D8-B7F7-454AF84B3CD1}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D10:D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -895,7 +893,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -925,7 +923,7 @@
         <v>500</v>
       </c>
       <c r="B3">
-        <v>525</v>
+        <v>510</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -933,7 +931,7 @@
         <v>1000</v>
       </c>
       <c r="B4">
-        <v>1053</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -941,7 +939,7 @@
         <v>1500</v>
       </c>
       <c r="B5">
-        <v>1580</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -949,7 +947,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>2118</v>
+        <v>2103</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -957,7 +955,7 @@
         <v>2500</v>
       </c>
       <c r="B7">
-        <v>2657</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -965,7 +963,7 @@
         <v>3000</v>
       </c>
       <c r="B8">
-        <v>3207</v>
+        <v>3188</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -973,7 +971,7 @@
         <v>3500</v>
       </c>
       <c r="B9">
-        <v>3751</v>
+        <v>3730</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -981,7 +979,7 @@
         <v>4000</v>
       </c>
       <c r="B10">
-        <v>4304</v>
+        <v>4282</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -989,7 +987,7 @@
         <v>4500</v>
       </c>
       <c r="B11">
-        <v>4854</v>
+        <v>4827</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -997,7 +995,7 @@
         <v>5000</v>
       </c>
       <c r="B12">
-        <v>5418</v>
+        <v>5391</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1005,7 +1003,7 @@
         <v>5500</v>
       </c>
       <c r="B13">
-        <v>5980</v>
+        <v>5950</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1011,7 @@
         <v>6000</v>
       </c>
       <c r="B14">
-        <v>6560</v>
+        <v>6527</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1021,7 +1019,7 @@
         <v>6500</v>
       </c>
       <c r="B15">
-        <v>7136</v>
+        <v>7103</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +1027,7 @@
         <v>7000</v>
       </c>
       <c r="B16">
-        <v>7728</v>
+        <v>7693</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,8 +1035,8 @@
         <v>7500</v>
       </c>
       <c r="B17">
-        <f>B16+550</f>
-        <v>8278</v>
+        <f>7693+600</f>
+        <v>8293</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1046,8 +1044,8 @@
         <v>8000</v>
       </c>
       <c r="B18">
-        <f>B17+550</f>
-        <v>8828</v>
+        <f>8293+613</f>
+        <v>8906</v>
       </c>
     </row>
   </sheetData>
@@ -1062,8 +1060,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB97CA96-0EDD-44F7-A09C-5888F725DB2E}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B27"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1093,7 +1091,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>97</v>
+        <v>113</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1099,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>204</v>
+        <v>216</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1107,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>305</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1115,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>417</v>
+        <v>433</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1123,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>518</v>
+        <v>534</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1131,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>625</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +1139,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>724</v>
+        <v>737</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1147,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>827</v>
+        <v>845</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1155,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>938</v>
+        <v>953</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1163,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1040</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1171,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1140</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1181,7 +1179,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1240</v>
+        <v>1256</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1189,7 +1187,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1350</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1197,7 +1195,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1448</v>
+        <v>1468</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1205,7 +1203,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1548</v>
+        <v>1567</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1213,7 +1211,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1648</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1221,7 +1219,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1755</v>
+        <v>1777</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1229,7 +1227,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1853</v>
+        <v>1879</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1237,7 +1235,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1954</v>
+        <v>1976</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1245,7 +1243,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2048</v>
+        <v>2075</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1253,7 +1251,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2150</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1261,7 +1259,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2255</v>
+        <v>2285</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1269,7 +1267,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2354</v>
+        <v>2384</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1277,7 +1275,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>2448</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1285,8 +1283,8 @@
         <v>2500</v>
       </c>
       <c r="B27">
-        <f>B26+100</f>
-        <v>2548</v>
+        <f>B26+118</f>
+        <v>2606</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1294,8 +1292,8 @@
         <v>2600</v>
       </c>
       <c r="B28">
-        <f>B27+210</f>
-        <v>2758</v>
+        <f t="shared" ref="B28:B29" si="0">B27+118</f>
+        <v>2724</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1303,8 +1301,8 @@
         <v>2700</v>
       </c>
       <c r="B29">
-        <f>B28+210</f>
-        <v>2968</v>
+        <f t="shared" si="0"/>
+        <v>2842</v>
       </c>
     </row>
   </sheetData>

--- a/Table_Calib.xlsx
+++ b/Table_Calib.xlsx
@@ -8,15 +8,21 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Lopez\PycharmProjects\ProjectJP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C4CD5B2D-4EFC-4A41-A36F-4C19DD578356}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8761CA1E-9BE0-4E2F-963D-87F3B635F9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2340" yWindow="2340" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
   </bookViews>
   <sheets>
     <sheet name="X_axis" sheetId="1" r:id="rId1"/>
     <sheet name="Y_axis" sheetId="2" r:id="rId2"/>
     <sheet name="X_axis_RP" sheetId="3" r:id="rId3"/>
-    <sheet name="Y_axis_RP" sheetId="4" r:id="rId4"/>
+    <sheet name="Y_axis_RP" sheetId="10" r:id="rId4"/>
+    <sheet name="Y_axis_RP_15" sheetId="4" r:id="rId5"/>
+    <sheet name="Y_axis_RP_30" sheetId="5" r:id="rId6"/>
+    <sheet name="Y_axis_RP_45" sheetId="6" r:id="rId7"/>
+    <sheet name="Y_axis_RP_60" sheetId="7" r:id="rId8"/>
+    <sheet name="Y_axis_RP_75" sheetId="8" r:id="rId9"/>
+    <sheet name="Y_axis_RP_90" sheetId="9" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
   <si>
     <t>Autocad_Measure</t>
   </si>
@@ -80,8 +86,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -105,6 +112,17 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{2C6C1D03-5CBC-4C8C-9D5A-720BBDCC3AF7}" name="Autocad_Measure"/>
     <tableColumn id="2" xr3:uid="{A34442F3-C609-46A4-97EC-F5A7A3FBC21F}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E37AD398-A794-4A75-B6E1-4909DE87D549}" name="Table13578910" displayName="Table13578910" ref="A1:B29" totalsRowShown="0">
+  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{58933FE2-23A7-4D18-B592-FBCE95A87480}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{EF252B35-C6C9-4ADA-A327-9B0E78968671}" name="Real_Measure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -135,11 +153,66 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{4B73C71A-74A4-4174-99C9-CE5BCE6A99D6}" name="Table13511" displayName="Table13511" ref="A1:B29" totalsRowShown="0">
+  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{DE12D578-CA53-4E8C-98ED-49F0EB7C391A}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{A0BE32B1-0B36-4C25-AFB8-DC388C0F1E8A}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CC0FFF9B-4C8D-4AF5-B142-346F6116A4C6}" name="Table135" displayName="Table135" ref="A1:B29" totalsRowShown="0">
   <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{6C934D0D-47DC-496E-9492-3B38DFEB4421}" name="Autocad_Measure"/>
     <tableColumn id="2" xr3:uid="{7B4429AF-ABB5-4957-BE8B-8323AFE7E947}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FC0959CC-C109-420D-9A1E-69073EEAF35D}" name="Table1356" displayName="Table1356" ref="A1:B29" totalsRowShown="0">
+  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{EAA1783C-9642-42CA-B6FE-8171E15A03C5}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{5EB2B5AC-8F8C-43AA-8E60-8347C6038BD2}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{58498360-9B63-41E2-9994-BD7AF622D631}" name="Table1357" displayName="Table1357" ref="A1:B29" totalsRowShown="0">
+  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{C29B2A79-1A3A-4EF2-BA2F-51DE93808F68}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{7601D0CF-13CB-4DD8-B409-4BA5734C2B0D}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B730B40E-9CA7-4786-AC54-DE759DCE0EA5}" name="Table13578" displayName="Table13578" ref="A1:B29" totalsRowShown="0">
+  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{97CF737F-F435-4E76-805F-6CD049BF7015}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{FA7BEEBA-3DDE-441D-80DD-4C4E14C72701}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5C02AED6-8191-49A4-9DF1-3FE033F5B00F}" name="Table135789" displayName="Table135789" ref="A1:B29" totalsRowShown="0">
+  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{3699E1C5-3BA8-44EE-A5A3-9C811C4FCB19}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{6F16CAAF-24ED-43B2-8DED-1A389F64AB9E}" name="Real_Measure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -628,6 +701,263 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFCE129-86BF-48DC-A6AA-ABC6CA9E5698}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <f>B26+100</f>
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B29" si="0">B27+118</f>
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4773F7A4-FCA6-46D8-B7F7-454AF84B3CD1}">
   <dimension ref="A1:B29"/>
@@ -1057,11 +1387,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB97CA96-0EDD-44F7-A09C-5888F725DB2E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7104EA60-CE70-462D-A659-3DF377CD5840}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1091,7 +1421,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>113</v>
+        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1099,7 +1429,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>216</v>
+        <v>205</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1107,7 +1437,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1115,7 +1445,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>433</v>
+        <v>420</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1123,7 +1453,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>534</v>
+        <v>523</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1131,7 +1461,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>638</v>
+        <v>623</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1139,7 +1469,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>737</v>
+        <v>725</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1147,7 +1477,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>845</v>
+        <v>830</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1155,7 +1485,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>953</v>
+        <v>943</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1163,7 +1493,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1054</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1171,7 +1501,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1153</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1179,7 +1509,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1256</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1187,7 +1517,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1365</v>
+        <v>1353</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1195,7 +1525,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1468</v>
+        <v>1454</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1203,7 +1533,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1567</v>
+        <v>1553</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1211,7 +1541,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1670</v>
+        <v>1653</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1219,7 +1549,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1777</v>
+        <v>1764</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1227,7 +1557,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1879</v>
+        <v>1863</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1235,7 +1565,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1976</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1243,7 +1573,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2075</v>
+        <v>2055</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1251,7 +1581,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2176</v>
+        <v>2153</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1259,7 +1589,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2285</v>
+        <v>2264</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1267,7 +1597,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2384</v>
+        <v>2363</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1275,7 +1605,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>2488</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1283,8 +1613,8 @@
         <v>2500</v>
       </c>
       <c r="B27">
-        <f>B26+118</f>
-        <v>2606</v>
+        <f>B26+100</f>
+        <v>2555</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1293,7 +1623,7 @@
       </c>
       <c r="B28">
         <f t="shared" ref="B28:B29" si="0">B27+118</f>
-        <v>2724</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1302,7 +1632,1320 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
+        <v>2791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB97CA96-0EDD-44F7-A09C-5888F725DB2E}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <f>B26+100</f>
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B29" si="0">B27+118</f>
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF62CD5B-5BDD-4476-9093-BA6569FECEEE}">
+  <dimension ref="A1:M29"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>845</v>
+      </c>
+      <c r="M10" s="1"/>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>953</v>
+      </c>
+      <c r="M11">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>1054</v>
+      </c>
+      <c r="M12">
+        <f>M11+1.5</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>1153</v>
+      </c>
+      <c r="M13">
+        <f t="shared" ref="M13:M17" si="0">M12+1.5</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>1256</v>
+      </c>
+      <c r="M14">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>1365</v>
+      </c>
+      <c r="M15">
+        <f t="shared" si="0"/>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>1468</v>
+      </c>
+      <c r="M16">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1567</v>
+      </c>
+      <c r="M17">
+        <f t="shared" si="0"/>
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1777</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1879</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1976</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>2075</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>2285</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2384</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2488</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <f>B26+118</f>
+        <v>2606</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B29" si="1">B27+118</f>
+        <v>2724</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="1"/>
         <v>2842</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132ACC4C-8D63-4A6E-BFCC-1DB2C31C4E80}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <f>B26+100</f>
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B29" si="0">B27+118</f>
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874DC80E-83F0-4EAC-BC71-AB6869434182}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <f>B26+100</f>
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B29" si="0">B27+118</f>
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22188163-57AE-432A-BE0D-7E19A05572A5}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <f>B26+100</f>
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B29" si="0">B27+118</f>
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2791</v>
       </c>
     </row>
   </sheetData>

--- a/Table_Calib.xlsx
+++ b/Table_Calib.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Lopez\PycharmProjects\ProjectJP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8761CA1E-9BE0-4E2F-963D-87F3B635F9A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600CA017-DCBE-4EDF-9878-20C4199D1331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
   </bookViews>
@@ -17,12 +17,13 @@
     <sheet name="Y_axis" sheetId="2" r:id="rId2"/>
     <sheet name="X_axis_RP" sheetId="3" r:id="rId3"/>
     <sheet name="Y_axis_RP" sheetId="10" r:id="rId4"/>
-    <sheet name="Y_axis_RP_15" sheetId="4" r:id="rId5"/>
-    <sheet name="Y_axis_RP_30" sheetId="5" r:id="rId6"/>
-    <sheet name="Y_axis_RP_45" sheetId="6" r:id="rId7"/>
-    <sheet name="Y_axis_RP_60" sheetId="7" r:id="rId8"/>
-    <sheet name="Y_axis_RP_75" sheetId="8" r:id="rId9"/>
-    <sheet name="Y_axis_RP_90" sheetId="9" r:id="rId10"/>
+    <sheet name="Y_axis_RP_13" sheetId="4" r:id="rId5"/>
+    <sheet name="Y_axis_RP_26" sheetId="5" r:id="rId6"/>
+    <sheet name="Y_axis_RP_39" sheetId="6" r:id="rId7"/>
+    <sheet name="Y_axis_RP_52" sheetId="7" r:id="rId8"/>
+    <sheet name="Y_axis_RP_65" sheetId="8" r:id="rId9"/>
+    <sheet name="Y_axis_RP_78" sheetId="9" r:id="rId10"/>
+    <sheet name="Y_axis_RP_91" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="2">
   <si>
     <t>Autocad_Measure</t>
   </si>
@@ -123,6 +124,17 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{58933FE2-23A7-4D18-B592-FBCE95A87480}" name="Autocad_Measure"/>
     <tableColumn id="2" xr3:uid="{EF252B35-C6C9-4ADA-A327-9B0E78968671}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AC379923-22F8-4FE0-A280-BA3824AA480C}" name="Table1357891012" displayName="Table1357891012" ref="A1:B29" totalsRowShown="0">
+  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0C722AC3-F68A-42D3-95FF-7492CFC6645C}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{F702A7AF-3902-4210-89AC-9A0E57663C84}" name="Real_Measure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -958,6 +970,263 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A12BBE9-5885-4BA4-94F0-BC7269FA6F96}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>1353</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>1454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1553</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1653</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1764</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1863</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1955</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>2055</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>2153</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>2264</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2363</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2455</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <f>B26+100</f>
+        <v>2555</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <f t="shared" ref="B28:B29" si="0">B27+118</f>
+        <v>2673</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <f t="shared" si="0"/>
+        <v>2791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4773F7A4-FCA6-46D8-B7F7-454AF84B3CD1}">
   <dimension ref="A1:B29"/>
@@ -1391,7 +1660,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1647,8 +1916,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB97CA96-0EDD-44F7-A09C-5888F725DB2E}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1905,7 +2174,7 @@
   <dimension ref="A1:M29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="M9" sqref="M9:N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2002,9 +2271,6 @@
       <c r="B11">
         <v>953</v>
       </c>
-      <c r="M11">
-        <v>1.5</v>
-      </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
@@ -2013,10 +2279,6 @@
       <c r="B12">
         <v>1054</v>
       </c>
-      <c r="M12">
-        <f>M11+1.5</f>
-        <v>3</v>
-      </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
@@ -2025,10 +2287,6 @@
       <c r="B13">
         <v>1153</v>
       </c>
-      <c r="M13">
-        <f t="shared" ref="M13:M17" si="0">M12+1.5</f>
-        <v>4.5</v>
-      </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
@@ -2037,10 +2295,6 @@
       <c r="B14">
         <v>1256</v>
       </c>
-      <c r="M14">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
@@ -2049,10 +2303,6 @@
       <c r="B15">
         <v>1365</v>
       </c>
-      <c r="M15">
-        <f t="shared" si="0"/>
-        <v>7.5</v>
-      </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
@@ -2061,24 +2311,16 @@
       <c r="B16">
         <v>1468</v>
       </c>
-      <c r="M16">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1500</v>
       </c>
       <c r="B17">
         <v>1567</v>
       </c>
-      <c r="M17">
-        <f t="shared" si="0"/>
-        <v>10.5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>1600</v>
       </c>
@@ -2086,7 +2328,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>1700</v>
       </c>
@@ -2094,7 +2336,7 @@
         <v>1777</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>1800</v>
       </c>
@@ -2102,7 +2344,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>1900</v>
       </c>
@@ -2110,7 +2352,7 @@
         <v>1976</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2000</v>
       </c>
@@ -2118,7 +2360,7 @@
         <v>2075</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>2100</v>
       </c>
@@ -2126,7 +2368,7 @@
         <v>2176</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2200</v>
       </c>
@@ -2134,7 +2376,7 @@
         <v>2285</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>2300</v>
       </c>
@@ -2142,7 +2384,7 @@
         <v>2384</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>2400</v>
       </c>
@@ -2150,7 +2392,7 @@
         <v>2488</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2500</v>
       </c>
@@ -2159,21 +2401,21 @@
         <v>2606</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>2600</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B29" si="1">B27+118</f>
+        <f t="shared" ref="B28:B29" si="0">B27+118</f>
         <v>2724</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2700</v>
       </c>
       <c r="B29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>2842</v>
       </c>
     </row>
@@ -2447,7 +2689,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="B23" sqref="B23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Table_Calib.xlsx
+++ b/Table_Calib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Lopez\PycharmProjects\ProjectJP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{600CA017-DCBE-4EDF-9878-20C4199D1331}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AF4D86-AC02-4D42-9567-81D4B44CF4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="3" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
   </bookViews>
   <sheets>
     <sheet name="X_axis" sheetId="1" r:id="rId1"/>
@@ -24,6 +24,11 @@
     <sheet name="Y_axis_RP_65" sheetId="8" r:id="rId9"/>
     <sheet name="Y_axis_RP_78" sheetId="9" r:id="rId10"/>
     <sheet name="Y_axis_RP_91" sheetId="11" r:id="rId11"/>
+    <sheet name="X_axis_RP_70" sheetId="12" r:id="rId12"/>
+    <sheet name="X_axis_RP_120" sheetId="13" r:id="rId13"/>
+    <sheet name="X_axis_RP_200" sheetId="14" r:id="rId14"/>
+    <sheet name="X_axis_RP_230" sheetId="15" r:id="rId15"/>
+    <sheet name="bkp" sheetId="16" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -46,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="2">
   <si>
     <t>Autocad_Measure</t>
   </si>
@@ -135,6 +140,50 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{0C722AC3-F68A-42D3-95FF-7492CFC6645C}" name="Autocad_Measure"/>
     <tableColumn id="2" xr3:uid="{F702A7AF-3902-4210-89AC-9A0E57663C84}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{31B7BAB4-299A-4527-9A7D-ADBE450ECDFE}" name="Table1413" displayName="Table1413" ref="A1:B18" totalsRowShown="0">
+  <autoFilter ref="A1:B18" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{1FBF60FD-16A2-4F49-AE8E-ED90537CF655}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{97BC06D6-C592-4D02-A187-65141CEE3E6B}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FF0B6B58-F3B9-409B-8569-50824E92ECCE}" name="Table141314" displayName="Table141314" ref="A1:B18" totalsRowShown="0">
+  <autoFilter ref="A1:B18" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{BA101A83-3DD4-4B33-B0A1-9F2B5F224321}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{DC843586-993C-4676-AFBA-6702FCFA391F}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D0079F62-2028-48EC-847B-8E0D9C0113BC}" name="Table14131415" displayName="Table14131415" ref="A1:B18" totalsRowShown="0">
+  <autoFilter ref="A1:B18" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{0A32CD99-B19D-4067-BFD3-68CBC9DC901A}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{4B088248-391B-444A-8DFB-CB80CFE9F188}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{887B2266-6251-4A21-9609-4C0E4976498D}" name="Table1413141516" displayName="Table1413141516" ref="A1:B18" totalsRowShown="0">
+  <autoFilter ref="A1:B18" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{14247847-A51A-4E61-8FA4-686700971684}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{FC77D037-EBD3-44AA-B09D-C5CF69F4F0DB}" name="Real_Measure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -717,8 +766,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFCE129-86BF-48DC-A6AA-ABC6CA9E5698}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -748,7 +797,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -756,7 +805,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -764,7 +813,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>310</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -772,7 +821,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>420</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -780,7 +829,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>523</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -788,7 +837,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>623</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -796,7 +845,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>725</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -804,7 +853,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>830</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -812,7 +861,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>943</v>
+        <v>987</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -820,7 +869,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1042</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -828,7 +877,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1145</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -836,7 +885,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1243</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -844,7 +893,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1353</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -852,7 +901,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1454</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -860,7 +909,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1553</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -868,7 +917,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1653</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -876,7 +925,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1764</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -884,7 +933,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1863</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -892,7 +941,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1955</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -900,7 +949,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2055</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -908,7 +957,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2153</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -916,7 +965,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2264</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -974,8 +1023,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A12BBE9-5885-4BA4-94F0-BC7269FA6F96}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1005,7 +1054,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1013,7 +1062,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>205</v>
+        <v>224</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1021,7 +1070,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>310</v>
+        <v>333</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1029,7 +1078,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>420</v>
+        <v>445</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1037,7 +1086,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>523</v>
+        <v>555</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1045,7 +1094,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>623</v>
+        <v>662</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1053,7 +1102,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>725</v>
+        <v>769</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1061,7 +1110,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>830</v>
+        <v>870</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1069,7 +1118,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>943</v>
+        <v>987</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1077,7 +1126,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1042</v>
+        <v>1093</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1085,7 +1134,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1145</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1093,7 +1142,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1243</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1101,7 +1150,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1353</v>
+        <v>1412</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1109,7 +1158,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1454</v>
+        <v>1518</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1117,7 +1166,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1553</v>
+        <v>1628</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1125,7 +1174,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1653</v>
+        <v>1728</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1133,7 +1182,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1764</v>
+        <v>1842</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1141,7 +1190,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1863</v>
+        <v>1942</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1149,7 +1198,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1955</v>
+        <v>2045</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1157,7 +1206,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2055</v>
+        <v>2147</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1165,7 +1214,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2153</v>
+        <v>2248</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1173,7 +1222,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2264</v>
+        <v>2360</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1224,6 +1273,882 @@
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A77E3D-A206-47C5-AB54-20DB1B06E091}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1500</v>
+      </c>
+      <c r="B5">
+        <v>1577</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6">
+        <v>2115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2500</v>
+      </c>
+      <c r="B7">
+        <v>2663</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3000</v>
+      </c>
+      <c r="B8">
+        <v>3212</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3500</v>
+      </c>
+      <c r="B9">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4000</v>
+      </c>
+      <c r="B10">
+        <v>4312</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4500</v>
+      </c>
+      <c r="B11">
+        <v>4860</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5000</v>
+      </c>
+      <c r="B12">
+        <v>5425</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5500</v>
+      </c>
+      <c r="B13">
+        <v>5982</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6000</v>
+      </c>
+      <c r="B14">
+        <v>6562</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6500</v>
+      </c>
+      <c r="B15">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7000</v>
+      </c>
+      <c r="B16">
+        <v>7740</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7500</v>
+      </c>
+      <c r="B17">
+        <v>8340</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8000</v>
+      </c>
+      <c r="B18">
+        <v>8940</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4291FF55-69CA-46B7-9882-493198D5CB99}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1500</v>
+      </c>
+      <c r="B5">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6">
+        <v>2108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2500</v>
+      </c>
+      <c r="B7">
+        <v>2645</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3000</v>
+      </c>
+      <c r="B8">
+        <v>3197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3500</v>
+      </c>
+      <c r="B9">
+        <v>3537</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4000</v>
+      </c>
+      <c r="B10">
+        <v>4292</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4500</v>
+      </c>
+      <c r="B11">
+        <v>4840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5000</v>
+      </c>
+      <c r="B12">
+        <v>5405</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5500</v>
+      </c>
+      <c r="B13">
+        <v>5694</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6000</v>
+      </c>
+      <c r="B14">
+        <v>6544</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6500</v>
+      </c>
+      <c r="B15">
+        <v>7122</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7000</v>
+      </c>
+      <c r="B16">
+        <v>7715</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7500</v>
+      </c>
+      <c r="B17">
+        <v>8308</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8000</v>
+      </c>
+      <c r="B18">
+        <v>8901</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8C1E29-305D-40C6-B082-44EE1B41EA33}">
+  <dimension ref="A1:B18"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1500</v>
+      </c>
+      <c r="B5">
+        <v>1562</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2500</v>
+      </c>
+      <c r="B7">
+        <v>2632</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3000</v>
+      </c>
+      <c r="B8">
+        <v>3175</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3500</v>
+      </c>
+      <c r="B9">
+        <v>3710</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4000</v>
+      </c>
+      <c r="B10">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4500</v>
+      </c>
+      <c r="B11">
+        <v>4797</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5000</v>
+      </c>
+      <c r="B12">
+        <v>5355</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5500</v>
+      </c>
+      <c r="B13">
+        <v>5905</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6000</v>
+      </c>
+      <c r="B14">
+        <v>6477</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6500</v>
+      </c>
+      <c r="B15">
+        <v>7048</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7000</v>
+      </c>
+      <c r="B16">
+        <v>7635</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7500</v>
+      </c>
+      <c r="B17">
+        <v>8222</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8000</v>
+      </c>
+      <c r="B18">
+        <v>8809</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A383C4-FA93-4AD7-AF11-0ADF691DD7EA}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1500</v>
+      </c>
+      <c r="B5">
+        <v>1555</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6">
+        <v>2092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2500</v>
+      </c>
+      <c r="B7">
+        <v>2620</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3000</v>
+      </c>
+      <c r="B8">
+        <v>3162</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3500</v>
+      </c>
+      <c r="B9">
+        <v>3647</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4000</v>
+      </c>
+      <c r="B10">
+        <v>4240</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4500</v>
+      </c>
+      <c r="B11">
+        <v>4670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5000</v>
+      </c>
+      <c r="B12">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5500</v>
+      </c>
+      <c r="B13">
+        <v>5890</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6000</v>
+      </c>
+      <c r="B14">
+        <v>6460</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6500</v>
+      </c>
+      <c r="B15">
+        <v>7025</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7000</v>
+      </c>
+      <c r="B16">
+        <v>7615</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7500</v>
+      </c>
+      <c r="B17">
+        <v>8205</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8000</v>
+      </c>
+      <c r="B18">
+        <v>8795</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <f>7740-7140</f>
+        <v>600</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9161CE-1C6F-4D92-81DC-3297F1654651}">
+  <dimension ref="A1:B28"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>540</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1078</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1608</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2155</v>
+      </c>
+      <c r="B5">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2698</v>
+      </c>
+      <c r="B6">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3243</v>
+      </c>
+      <c r="B7">
+        <v>610</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3780</v>
+      </c>
+      <c r="B8">
+        <v>715</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4325</v>
+      </c>
+      <c r="B9">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4860</v>
+      </c>
+      <c r="B10">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5405</v>
+      </c>
+      <c r="B11">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5946</v>
+      </c>
+      <c r="B12">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6500</v>
+      </c>
+      <c r="B13">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7053</v>
+      </c>
+      <c r="B14">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7610</v>
+      </c>
+      <c r="B15">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8167</v>
+      </c>
+      <c r="B16">
+        <v>1530</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8724</v>
+      </c>
+      <c r="B17">
+        <v>1630</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1730</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1830</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1930</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2030</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2120</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2430</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2535</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2745</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -1491,8 +2416,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A648D3-CA9B-4868-9F1D-6C476990B8DF}">
   <dimension ref="A1:B18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1522,7 +2447,7 @@
         <v>500</v>
       </c>
       <c r="B3">
-        <v>510</v>
+        <v>520</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1530,7 +2455,7 @@
         <v>1000</v>
       </c>
       <c r="B4">
-        <v>1035</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1538,7 +2463,7 @@
         <v>1500</v>
       </c>
       <c r="B5">
-        <v>1560</v>
+        <v>1590</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1546,7 +2471,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>2103</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1554,7 +2479,7 @@
         <v>2500</v>
       </c>
       <c r="B7">
-        <v>2638</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1562,7 +2487,7 @@
         <v>3000</v>
       </c>
       <c r="B8">
-        <v>3188</v>
+        <v>3225</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1570,7 +2495,7 @@
         <v>3500</v>
       </c>
       <c r="B9">
-        <v>3730</v>
+        <v>3760</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1578,7 +2503,7 @@
         <v>4000</v>
       </c>
       <c r="B10">
-        <v>4282</v>
+        <v>4310</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1586,7 +2511,7 @@
         <v>4500</v>
       </c>
       <c r="B11">
-        <v>4827</v>
+        <v>4840</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1594,7 +2519,7 @@
         <v>5000</v>
       </c>
       <c r="B12">
-        <v>5391</v>
+        <v>5390</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1602,7 +2527,7 @@
         <v>5500</v>
       </c>
       <c r="B13">
-        <v>5950</v>
+        <v>5930</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1610,7 +2535,7 @@
         <v>6000</v>
       </c>
       <c r="B14">
-        <v>6527</v>
+        <v>6483</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1618,7 +2543,7 @@
         <v>6500</v>
       </c>
       <c r="B15">
-        <v>7103</v>
+        <v>7035</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1626,7 +2551,7 @@
         <v>7000</v>
       </c>
       <c r="B16">
-        <v>7693</v>
+        <v>7595</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1634,8 +2559,7 @@
         <v>7500</v>
       </c>
       <c r="B17">
-        <f>7693+600</f>
-        <v>8293</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1643,8 +2567,7 @@
         <v>8000</v>
       </c>
       <c r="B18">
-        <f>8293+613</f>
-        <v>8906</v>
+        <v>8740</v>
       </c>
     </row>
   </sheetData>
@@ -1659,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7104EA60-CE70-462D-A659-3DF377CD5840}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1690,7 +2613,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1698,7 +2621,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>205</v>
+        <v>200</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1706,7 +2629,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -1714,7 +2637,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1722,7 +2645,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>523</v>
+        <v>510</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1730,7 +2653,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>623</v>
+        <v>610</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,7 +2661,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>725</v>
+        <v>710</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +2669,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>830</v>
+        <v>812</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1754,7 +2677,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>943</v>
+        <v>920</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +2685,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1042</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +2693,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1145</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +2701,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1243</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,7 +2709,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1353</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,7 +2717,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1454</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,7 +2725,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1553</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1810,7 +2733,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1653</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,7 +2741,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1764</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1826,7 +2749,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1863</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,7 +2757,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1955</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1842,7 +2765,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2055</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1850,7 +2773,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2153</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1858,7 +2781,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2264</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1866,7 +2789,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2363</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1874,7 +2797,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>2455</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1882,8 +2805,8 @@
         <v>2500</v>
       </c>
       <c r="B27">
-        <f>B26+100</f>
-        <v>2555</v>
+        <f>2395+95</f>
+        <v>2490</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1891,8 +2814,8 @@
         <v>2600</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B29" si="0">B27+118</f>
-        <v>2673</v>
+        <f>2490+95</f>
+        <v>2585</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1900,8 +2823,8 @@
         <v>2700</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>2791</v>
+        <f>2585+95</f>
+        <v>2680</v>
       </c>
     </row>
   </sheetData>
@@ -1917,7 +2840,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+      <selection activeCell="B3" sqref="B3:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1947,7 +2870,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1955,7 +2878,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>205</v>
+        <v>210</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -1979,7 +2902,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1987,7 +2910,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>623</v>
+        <v>627</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -1995,7 +2918,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>725</v>
+        <v>727</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2003,7 +2926,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2011,7 +2934,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>943</v>
+        <v>935</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2019,7 +2942,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1042</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2027,7 +2950,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1145</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2035,7 +2958,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1243</v>
+        <v>1242</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2043,7 +2966,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1353</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2051,7 +2974,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1454</v>
+        <v>1446</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2059,7 +2982,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1553</v>
+        <v>1546</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2067,7 +2990,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1653</v>
+        <v>1639</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2075,7 +2998,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1764</v>
+        <v>1749</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2083,7 +3006,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1863</v>
+        <v>1844</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2091,7 +3014,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1955</v>
+        <v>1943</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2099,7 +3022,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2055</v>
+        <v>2046</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2107,7 +3030,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2153</v>
+        <v>2140</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2115,7 +3038,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2264</v>
+        <v>2250</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2123,7 +3046,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2363</v>
+        <v>2345</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2131,7 +3054,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>2455</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2140,7 +3063,7 @@
       </c>
       <c r="B27">
         <f>B26+100</f>
-        <v>2555</v>
+        <v>2545</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2149,7 +3072,7 @@
       </c>
       <c r="B28">
         <f t="shared" ref="B28:B29" si="0">B27+118</f>
-        <v>2673</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2158,7 +3081,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>2791</v>
+        <v>2781</v>
       </c>
     </row>
   </sheetData>
@@ -2173,8 +3096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF62CD5B-5BDD-4476-9093-BA6569FECEEE}">
   <dimension ref="A1:M29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9:N17"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2204,7 +3127,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -2212,7 +3135,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -2220,7 +3143,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -2228,7 +3151,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -2236,7 +3159,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>534</v>
+        <v>532</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
@@ -2244,7 +3167,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>638</v>
+        <v>632</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
@@ -2252,7 +3175,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>737</v>
+        <v>736</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -2260,7 +3183,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>845</v>
+        <v>836</v>
       </c>
       <c r="M10" s="1"/>
     </row>
@@ -2269,7 +3192,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>953</v>
+        <v>946</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
@@ -2277,7 +3200,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1054</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
@@ -2285,7 +3208,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1153</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -2293,7 +3216,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1256</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
@@ -2301,7 +3224,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1365</v>
+        <v>1361</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
@@ -2309,7 +3232,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1468</v>
+        <v>1462</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2317,7 +3240,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1567</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2325,7 +3248,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1670</v>
+        <v>1660</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2333,7 +3256,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1777</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2341,7 +3264,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1879</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2349,7 +3272,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1976</v>
+        <v>1966</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2357,7 +3280,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2075</v>
+        <v>2063</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2365,7 +3288,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2176</v>
+        <v>2164</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2373,7 +3296,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2285</v>
+        <v>2271</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2381,7 +3304,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2384</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2389,7 +3312,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>2488</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2398,7 +3321,7 @@
       </c>
       <c r="B27">
         <f>B26+118</f>
-        <v>2606</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2407,7 +3330,7 @@
       </c>
       <c r="B28">
         <f t="shared" ref="B28:B29" si="0">B27+118</f>
-        <v>2724</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2416,7 +3339,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>2842</v>
+        <v>2816</v>
       </c>
     </row>
   </sheetData>
@@ -2431,8 +3354,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132ACC4C-8D63-4A6E-BFCC-1DB2C31C4E80}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2462,7 +3385,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2470,7 +3393,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>205</v>
+        <v>219</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2478,7 +3401,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>310</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2486,7 +3409,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>420</v>
+        <v>432</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2494,7 +3417,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>523</v>
+        <v>537</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2502,7 +3425,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>623</v>
+        <v>638</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2510,7 +3433,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>725</v>
+        <v>742</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2518,7 +3441,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>830</v>
+        <v>846</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2526,7 +3449,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>943</v>
+        <v>952</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2534,7 +3457,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1042</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2542,7 +3465,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1145</v>
+        <v>1154</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2550,7 +3473,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1243</v>
+        <v>1255</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2558,7 +3481,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1353</v>
+        <v>1365</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2566,7 +3489,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1454</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2574,7 +3497,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1553</v>
+        <v>1565</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2582,7 +3505,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1653</v>
+        <v>1665</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2590,7 +3513,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1764</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2598,7 +3521,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1863</v>
+        <v>1870</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2606,7 +3529,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1955</v>
+        <v>1965</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2614,7 +3537,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2055</v>
+        <v>2065</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2622,7 +3545,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2153</v>
+        <v>2163</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2630,7 +3553,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2264</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2638,7 +3561,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2363</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2646,7 +3569,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>2455</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2655,7 +3578,7 @@
       </c>
       <c r="B27">
         <f>B26+100</f>
-        <v>2555</v>
+        <v>2565</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +3587,7 @@
       </c>
       <c r="B28">
         <f t="shared" ref="B28:B29" si="0">B27+118</f>
-        <v>2673</v>
+        <v>2683</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2673,7 +3596,7 @@
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>2791</v>
+        <v>2801</v>
       </c>
     </row>
   </sheetData>
@@ -2688,8 +3611,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874DC80E-83F0-4EAC-BC71-AB6869434182}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B23" sqref="B23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2719,7 +3642,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2727,7 +3650,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>205</v>
+        <v>215</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2735,7 +3658,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>310</v>
+        <v>320</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2743,7 +3666,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>420</v>
+        <v>435</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2751,7 +3674,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>523</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2759,7 +3682,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>623</v>
+        <v>642</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2767,7 +3690,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>725</v>
+        <v>745</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2775,7 +3698,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>830</v>
+        <v>847</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2783,7 +3706,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>943</v>
+        <v>958</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2791,7 +3714,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1042</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2799,7 +3722,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1145</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2807,7 +3730,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1243</v>
+        <v>1268</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2815,7 +3738,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1353</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2823,7 +3746,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1454</v>
+        <v>1480</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2831,7 +3754,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1553</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2839,7 +3762,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1653</v>
+        <v>1682</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2847,7 +3770,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1764</v>
+        <v>1794</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2855,7 +3778,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1863</v>
+        <v>1894</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2863,7 +3786,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1955</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2871,7 +3794,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2055</v>
+        <v>2097</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2879,7 +3802,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2153</v>
+        <v>2192</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2887,7 +3810,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2264</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2895,7 +3818,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2363</v>
+        <v>2402</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2945,8 +3868,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22188163-57AE-432A-BE0D-7E19A05572A5}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3:B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2976,7 +3899,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>104</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,7 +3907,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>205</v>
+        <v>218</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +3915,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>310</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,7 +3923,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>420</v>
+        <v>437</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,7 +3931,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>523</v>
+        <v>543</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3016,7 +3939,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>623</v>
+        <v>650</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +3947,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>725</v>
+        <v>751</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3955,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>830</v>
+        <v>855</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,7 +3963,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>943</v>
+        <v>966</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,7 +3971,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1042</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3056,7 +3979,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1145</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3064,7 +3987,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1243</v>
+        <v>1280</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,7 +3995,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1353</v>
+        <v>1387</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3080,7 +4003,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1454</v>
+        <v>1492</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3088,7 +4011,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1553</v>
+        <v>1600</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3096,7 +4019,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1653</v>
+        <v>1700</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3104,7 +4027,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1764</v>
+        <v>1808</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3112,7 +4035,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1863</v>
+        <v>1910</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3120,7 +4043,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1955</v>
+        <v>2012</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3128,7 +4051,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2055</v>
+        <v>2114</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3136,7 +4059,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2153</v>
+        <v>2217</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3144,7 +4067,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2264</v>
+        <v>2322</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">

--- a/Table_Calib.xlsx
+++ b/Table_Calib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Lopez\PycharmProjects\ProjectJP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31AF4D86-AC02-4D42-9567-81D4B44CF4FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ED3C94-8719-404B-B197-7115EDB10900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
   </bookViews>
   <sheets>
     <sheet name="X_axis" sheetId="1" r:id="rId1"/>
@@ -1951,7 +1951,7 @@
   <dimension ref="A1:B28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1966,7 +1966,7 @@
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>540</v>
+        <v>520</v>
       </c>
       <c r="B2">
         <v>100</v>
@@ -1974,7 +1974,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>1078</v>
+        <v>1060</v>
       </c>
       <c r="B3">
         <v>200</v>
@@ -1982,7 +1982,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1608</v>
+        <v>1590</v>
       </c>
       <c r="B4">
         <v>300</v>
@@ -1990,7 +1990,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>2155</v>
+        <v>2140</v>
       </c>
       <c r="B5">
         <v>410</v>
@@ -1998,7 +1998,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2698</v>
+        <v>2675</v>
       </c>
       <c r="B6">
         <v>510</v>
@@ -2006,7 +2006,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>3243</v>
+        <v>3225</v>
       </c>
       <c r="B7">
         <v>610</v>
@@ -2014,137 +2014,137 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3780</v>
+        <v>3760</v>
       </c>
       <c r="B8">
-        <v>715</v>
+        <v>710</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>4325</v>
+        <v>4310</v>
       </c>
       <c r="B9">
-        <v>820</v>
+        <v>812</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4860</v>
+        <v>4840</v>
       </c>
       <c r="B10">
-        <v>927</v>
+        <v>920</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>5405</v>
+        <v>5390</v>
       </c>
       <c r="B11">
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5946</v>
+        <v>5930</v>
       </c>
       <c r="B12">
-        <v>1130</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>6500</v>
+        <v>6483</v>
       </c>
       <c r="B13">
-        <v>1230</v>
+        <v>1220</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>7053</v>
+        <v>7035</v>
       </c>
       <c r="B14">
-        <v>1335</v>
+        <v>1320</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>7610</v>
+        <v>7595</v>
       </c>
       <c r="B15">
-        <v>1430</v>
+        <v>1420</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>8167</v>
+        <v>8160</v>
       </c>
       <c r="B16">
-        <v>1530</v>
+        <v>1520</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>8724</v>
+        <v>8740</v>
       </c>
       <c r="B17">
-        <v>1630</v>
+        <v>1615</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B18">
-        <v>1730</v>
+        <v>1720</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B19">
-        <v>1830</v>
+        <v>1815</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B20">
-        <v>1930</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B21">
-        <v>2030</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B22">
-        <v>2120</v>
+        <v>2105</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B23">
-        <v>2230</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B24">
-        <v>2325</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B25">
-        <v>2430</v>
+        <v>2395</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B26">
-        <v>2535</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B27">
-        <v>2640</v>
+        <v>2585</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B28">
-        <v>2745</v>
+        <v>2680</v>
       </c>
     </row>
   </sheetData>
@@ -2417,7 +2417,7 @@
   <dimension ref="A1:B18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2447,7 +2447,7 @@
         <v>500</v>
       </c>
       <c r="B3">
-        <v>520</v>
+        <v>475</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2455,7 +2455,7 @@
         <v>1000</v>
       </c>
       <c r="B4">
-        <v>1060</v>
+        <v>965</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2463,7 +2463,7 @@
         <v>1500</v>
       </c>
       <c r="B5">
-        <v>1590</v>
+        <v>1465</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2471,7 +2471,7 @@
         <v>2000</v>
       </c>
       <c r="B6">
-        <v>2140</v>
+        <v>1955</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2479,7 +2479,7 @@
         <v>2500</v>
       </c>
       <c r="B7">
-        <v>2675</v>
+        <v>2445</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2487,7 +2487,7 @@
         <v>3000</v>
       </c>
       <c r="B8">
-        <v>3225</v>
+        <v>2945</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2495,7 +2495,7 @@
         <v>3500</v>
       </c>
       <c r="B9">
-        <v>3760</v>
+        <v>3445</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2503,7 +2503,7 @@
         <v>4000</v>
       </c>
       <c r="B10">
-        <v>4310</v>
+        <v>3935</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2511,7 +2511,7 @@
         <v>4500</v>
       </c>
       <c r="B11">
-        <v>4840</v>
+        <v>4435</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2519,7 +2519,7 @@
         <v>5000</v>
       </c>
       <c r="B12">
-        <v>5390</v>
+        <v>4930</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2527,7 +2527,7 @@
         <v>5500</v>
       </c>
       <c r="B13">
-        <v>5930</v>
+        <v>5425</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2535,7 +2535,7 @@
         <v>6000</v>
       </c>
       <c r="B14">
-        <v>6483</v>
+        <v>5920</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2543,7 +2543,7 @@
         <v>6500</v>
       </c>
       <c r="B15">
-        <v>7035</v>
+        <v>6430</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2551,7 +2551,7 @@
         <v>7000</v>
       </c>
       <c r="B16">
-        <v>7595</v>
+        <v>6940</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2559,7 +2559,7 @@
         <v>7500</v>
       </c>
       <c r="B17">
-        <v>8160</v>
+        <v>7445</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2567,7 +2567,7 @@
         <v>8000</v>
       </c>
       <c r="B18">
-        <v>8740</v>
+        <v>7975</v>
       </c>
     </row>
   </sheetData>
@@ -2582,8 +2582,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7104EA60-CE70-462D-A659-3DF377CD5840}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,7 +2613,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2621,7 +2621,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>200</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2629,7 +2629,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>300</v>
+        <v>275</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2637,7 +2637,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>410</v>
+        <v>370</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2645,7 +2645,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>510</v>
+        <v>470</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2653,7 +2653,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>610</v>
+        <v>565</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2661,7 +2661,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>710</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +2669,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>812</v>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2677,7 +2677,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>920</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,7 +2685,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1020</v>
+        <v>940</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2693,7 +2693,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1120</v>
+        <v>1030</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2701,7 +2701,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1220</v>
+        <v>1125</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,7 +2709,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1320</v>
+        <v>1210</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2717,7 +2717,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1420</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,7 +2725,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1520</v>
+        <v>1405</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2733,7 +2733,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1615</v>
+        <v>1490</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2741,7 +2741,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1720</v>
+        <v>1580</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2749,7 +2749,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1815</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2757,7 +2757,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1915</v>
+        <v>1760</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,7 +2765,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2005</v>
+        <v>1850</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,7 +2773,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2105</v>
+        <v>1945</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +2781,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2205</v>
+        <v>2035</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,7 +2789,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2300</v>
+        <v>2120</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +2797,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>2395</v>
+        <v>2205</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2805,8 +2805,7 @@
         <v>2500</v>
       </c>
       <c r="B27">
-        <f>2395+95</f>
-        <v>2490</v>
+        <v>2295</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2814,8 +2813,8 @@
         <v>2600</v>
       </c>
       <c r="B28">
-        <f>2490+95</f>
-        <v>2585</v>
+        <f>2295+90</f>
+        <v>2385</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2823,8 +2822,8 @@
         <v>2700</v>
       </c>
       <c r="B29">
-        <f>2585+95</f>
-        <v>2680</v>
+        <f>2385+90</f>
+        <v>2475</v>
       </c>
     </row>
   </sheetData>

--- a/Table_Calib.xlsx
+++ b/Table_Calib.xlsx
@@ -1,34 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Lopez\PycharmProjects\ProjectJP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17ED3C94-8719-404B-B197-7115EDB10900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F1741B-1416-4D71-AEF8-60D686D5BBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
   </bookViews>
   <sheets>
     <sheet name="X_axis" sheetId="1" r:id="rId1"/>
     <sheet name="Y_axis" sheetId="2" r:id="rId2"/>
     <sheet name="X_axis_RP" sheetId="3" r:id="rId3"/>
     <sheet name="Y_axis_RP" sheetId="10" r:id="rId4"/>
-    <sheet name="Y_axis_RP_13" sheetId="4" r:id="rId5"/>
-    <sheet name="Y_axis_RP_26" sheetId="5" r:id="rId6"/>
-    <sheet name="Y_axis_RP_39" sheetId="6" r:id="rId7"/>
-    <sheet name="Y_axis_RP_52" sheetId="7" r:id="rId8"/>
-    <sheet name="Y_axis_RP_65" sheetId="8" r:id="rId9"/>
-    <sheet name="Y_axis_RP_78" sheetId="9" r:id="rId10"/>
-    <sheet name="Y_axis_RP_91" sheetId="11" r:id="rId11"/>
-    <sheet name="X_axis_RP_70" sheetId="12" r:id="rId12"/>
-    <sheet name="X_axis_RP_120" sheetId="13" r:id="rId13"/>
-    <sheet name="X_axis_RP_200" sheetId="14" r:id="rId14"/>
-    <sheet name="X_axis_RP_230" sheetId="15" r:id="rId15"/>
-    <sheet name="bkp" sheetId="16" r:id="rId16"/>
+    <sheet name="bkp" sheetId="16" r:id="rId5"/>
+    <sheet name="X_axis_RP_bkp" sheetId="19" r:id="rId6"/>
+    <sheet name="Y_axis_RP_bkp" sheetId="20" r:id="rId7"/>
+    <sheet name="Y_axis_RP_bkp2" sheetId="21" r:id="rId8"/>
+    <sheet name="Y_axis_RP_bkp3" sheetId="22" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -51,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
   <si>
     <t>Autocad_Measure</t>
   </si>
@@ -92,9 +85,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -124,66 +116,11 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{E37AD398-A794-4A75-B6E1-4909DE87D549}" name="Table13578910" displayName="Table13578910" ref="A1:B29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{995583CF-49FB-4033-A013-02A0796DC037}" name="Table1351110" displayName="Table1351110" ref="A1:B29" totalsRowShown="0">
   <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{58933FE2-23A7-4D18-B592-FBCE95A87480}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{EF252B35-C6C9-4ADA-A327-9B0E78968671}" name="Real_Measure"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{AC379923-22F8-4FE0-A280-BA3824AA480C}" name="Table1357891012" displayName="Table1357891012" ref="A1:B29" totalsRowShown="0">
-  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0C722AC3-F68A-42D3-95FF-7492CFC6645C}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{F702A7AF-3902-4210-89AC-9A0E57663C84}" name="Real_Measure"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{31B7BAB4-299A-4527-9A7D-ADBE450ECDFE}" name="Table1413" displayName="Table1413" ref="A1:B18" totalsRowShown="0">
-  <autoFilter ref="A1:B18" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{1FBF60FD-16A2-4F49-AE8E-ED90537CF655}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{97BC06D6-C592-4D02-A187-65141CEE3E6B}" name="Real_Measure"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table13.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{FF0B6B58-F3B9-409B-8569-50824E92ECCE}" name="Table141314" displayName="Table141314" ref="A1:B18" totalsRowShown="0">
-  <autoFilter ref="A1:B18" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{BA101A83-3DD4-4B33-B0A1-9F2B5F224321}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{DC843586-993C-4676-AFBA-6702FCFA391F}" name="Real_Measure"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table14.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{D0079F62-2028-48EC-847B-8E0D9C0113BC}" name="Table14131415" displayName="Table14131415" ref="A1:B18" totalsRowShown="0">
-  <autoFilter ref="A1:B18" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{0A32CD99-B19D-4067-BFD3-68CBC9DC901A}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{4B088248-391B-444A-8DFB-CB80CFE9F188}" name="Real_Measure"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table15.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{887B2266-6251-4A21-9609-4C0E4976498D}" name="Table1413141516" displayName="Table1413141516" ref="A1:B18" totalsRowShown="0">
-  <autoFilter ref="A1:B18" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{14247847-A51A-4E61-8FA4-686700971684}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{FC77D037-EBD3-44AA-B09D-C5CF69F4F0DB}" name="Real_Measure"/>
+    <tableColumn id="1" xr3:uid="{9EE76591-28FB-44CD-8025-8A3B67DAF279}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{2B2DF887-AB2A-43B0-BFDC-3CC10F886DAA}" name="Real_Measure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -203,8 +140,8 @@
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98AAC780-53A5-441E-AC0C-EB3955391959}" name="Table14" displayName="Table14" ref="A1:B18" totalsRowShown="0">
-  <autoFilter ref="A1:B18" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{98AAC780-53A5-441E-AC0C-EB3955391959}" name="Table14" displayName="Table14" ref="A1:B87" totalsRowShown="0">
+  <autoFilter ref="A1:B87" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B0369C10-E0D0-4A97-BA65-65775B5F5ED5}" name="Autocad_Measure"/>
     <tableColumn id="2" xr3:uid="{677063B0-7522-427B-B29E-9535C0197CC9}" name="Real_Measure"/>
@@ -225,55 +162,55 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{CC0FFF9B-4C8D-4AF5-B142-346F6116A4C6}" name="Table135" displayName="Table135" ref="A1:B29" totalsRowShown="0">
-  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{48BF94DA-5410-4D96-B294-4B3FD1069DDB}" name="Table4" displayName="Table4" ref="M1:N87" totalsRowShown="0">
+  <autoFilter ref="M1:N87" xr:uid="{48BF94DA-5410-4D96-B294-4B3FD1069DDB}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{6C934D0D-47DC-496E-9492-3B38DFEB4421}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{7B4429AF-ABB5-4957-BE8B-8323AFE7E947}" name="Real_Measure"/>
+    <tableColumn id="1" xr3:uid="{A6EBB768-AE7B-445A-9184-05BB0AABBD5A}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{723E9AC3-E0EA-4F1F-9367-1E3EA74A9FF1}" name="Real_Measure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{FC0959CC-C109-420D-9A1E-69073EEAF35D}" name="Table1356" displayName="Table1356" ref="A1:B29" totalsRowShown="0">
-  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6452D2F8-D7E6-45DA-9568-B828C6A7B373}" name="Table5" displayName="Table5" ref="P1:Q27" totalsRowShown="0">
+  <autoFilter ref="P1:Q27" xr:uid="{6452D2F8-D7E6-45DA-9568-B828C6A7B373}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EAA1783C-9642-42CA-B6FE-8171E15A03C5}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{5EB2B5AC-8F8C-43AA-8E60-8347C6038BD2}" name="Real_Measure"/>
+    <tableColumn id="1" xr3:uid="{B5562EAA-2DE0-47C8-94BD-81224F7A0572}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{3FD259D3-91FA-4623-9830-9E01636967BA}" name="Real_Measure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{58498360-9B63-41E2-9994-BD7AF622D631}" name="Table1357" displayName="Table1357" ref="A1:B29" totalsRowShown="0">
-  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3E803036-A2B3-49BE-9962-046BE4999757}" name="Table147" displayName="Table147" ref="A1:B87" totalsRowShown="0">
+  <autoFilter ref="A1:B87" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{C29B2A79-1A3A-4EF2-BA2F-51DE93808F68}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{7601D0CF-13CB-4DD8-B409-4BA5734C2B0D}" name="Real_Measure"/>
+    <tableColumn id="1" xr3:uid="{1CCA4217-D166-4088-9138-E36A062D0832}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{775F6594-CFFF-4871-BF08-ADC19BFD81A6}" name="Real_Measure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{B730B40E-9CA7-4786-AC54-DE759DCE0EA5}" name="Table13578" displayName="Table13578" ref="A1:B29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DF83C84F-5714-4BF8-BF45-4BE330FE6D15}" name="Table135118" displayName="Table135118" ref="A1:B29" totalsRowShown="0">
   <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{97CF737F-F435-4E76-805F-6CD049BF7015}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{FA7BEEBA-3DDE-441D-80DD-4C4E14C72701}" name="Real_Measure"/>
+    <tableColumn id="1" xr3:uid="{59E633D7-706E-4170-92DF-7D6F5977DC78}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{089A229D-706E-4596-A665-2C6E526F1F18}" name="Real_Measure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{5C02AED6-8191-49A4-9DF1-3FE033F5B00F}" name="Table135789" displayName="Table135789" ref="A1:B29" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D98E44B8-5AF4-4576-9160-A4B3D32E408C}" name="Table135119" displayName="Table135119" ref="A1:B29" totalsRowShown="0">
   <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3699E1C5-3BA8-44EE-A5A3-9C811C4FCB19}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{6F16CAAF-24ED-43B2-8DED-1A389F64AB9E}" name="Real_Measure"/>
+    <tableColumn id="1" xr3:uid="{A807C692-3196-4EFD-AF24-A683C719A560}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{014B985F-955F-4DD7-B2FC-CC49724AB0FF}" name="Real_Measure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -762,1396 +699,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBFCE129-86BF-48DC-A6AA-ABC6CA9E5698}">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>200</v>
-      </c>
-      <c r="B4">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>300</v>
-      </c>
-      <c r="B5">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>400</v>
-      </c>
-      <c r="B6">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>500</v>
-      </c>
-      <c r="B7">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>600</v>
-      </c>
-      <c r="B8">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>700</v>
-      </c>
-      <c r="B9">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>800</v>
-      </c>
-      <c r="B10">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>900</v>
-      </c>
-      <c r="B11">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1000</v>
-      </c>
-      <c r="B12">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1100</v>
-      </c>
-      <c r="B13">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1200</v>
-      </c>
-      <c r="B14">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1300</v>
-      </c>
-      <c r="B15">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1400</v>
-      </c>
-      <c r="B16">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1500</v>
-      </c>
-      <c r="B17">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1600</v>
-      </c>
-      <c r="B18">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1700</v>
-      </c>
-      <c r="B19">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1800</v>
-      </c>
-      <c r="B20">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1900</v>
-      </c>
-      <c r="B21">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2000</v>
-      </c>
-      <c r="B22">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2100</v>
-      </c>
-      <c r="B23">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2200</v>
-      </c>
-      <c r="B24">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2300</v>
-      </c>
-      <c r="B25">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2400</v>
-      </c>
-      <c r="B26">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2500</v>
-      </c>
-      <c r="B27">
-        <f>B26+100</f>
-        <v>2555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2600</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ref="B28:B29" si="0">B27+118</f>
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2700</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>2791</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A12BBE9-5885-4BA4-94F0-BC7269FA6F96}">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>200</v>
-      </c>
-      <c r="B4">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>300</v>
-      </c>
-      <c r="B5">
-        <v>333</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>400</v>
-      </c>
-      <c r="B6">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>500</v>
-      </c>
-      <c r="B7">
-        <v>555</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>600</v>
-      </c>
-      <c r="B8">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>700</v>
-      </c>
-      <c r="B9">
-        <v>769</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>800</v>
-      </c>
-      <c r="B10">
-        <v>870</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>900</v>
-      </c>
-      <c r="B11">
-        <v>987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1000</v>
-      </c>
-      <c r="B12">
-        <v>1093</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1100</v>
-      </c>
-      <c r="B13">
-        <v>1195</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1200</v>
-      </c>
-      <c r="B14">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1300</v>
-      </c>
-      <c r="B15">
-        <v>1412</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1400</v>
-      </c>
-      <c r="B16">
-        <v>1518</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1500</v>
-      </c>
-      <c r="B17">
-        <v>1628</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1600</v>
-      </c>
-      <c r="B18">
-        <v>1728</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1700</v>
-      </c>
-      <c r="B19">
-        <v>1842</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1800</v>
-      </c>
-      <c r="B20">
-        <v>1942</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1900</v>
-      </c>
-      <c r="B21">
-        <v>2045</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2000</v>
-      </c>
-      <c r="B22">
-        <v>2147</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2100</v>
-      </c>
-      <c r="B23">
-        <v>2248</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2200</v>
-      </c>
-      <c r="B24">
-        <v>2360</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2300</v>
-      </c>
-      <c r="B25">
-        <v>2363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2400</v>
-      </c>
-      <c r="B26">
-        <v>2455</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2500</v>
-      </c>
-      <c r="B27">
-        <f>B26+100</f>
-        <v>2555</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2600</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ref="B28:B29" si="0">B27+118</f>
-        <v>2673</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2700</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>2791</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78A77E3D-A206-47C5-AB54-20DB1B06E091}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>500</v>
-      </c>
-      <c r="B3">
-        <v>530</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1000</v>
-      </c>
-      <c r="B4">
-        <v>1065</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1500</v>
-      </c>
-      <c r="B5">
-        <v>1577</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2000</v>
-      </c>
-      <c r="B6">
-        <v>2115</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2500</v>
-      </c>
-      <c r="B7">
-        <v>2663</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3000</v>
-      </c>
-      <c r="B8">
-        <v>3212</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3500</v>
-      </c>
-      <c r="B9">
-        <v>3755</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4000</v>
-      </c>
-      <c r="B10">
-        <v>4312</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4500</v>
-      </c>
-      <c r="B11">
-        <v>4860</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5000</v>
-      </c>
-      <c r="B12">
-        <v>5425</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5500</v>
-      </c>
-      <c r="B13">
-        <v>5982</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6000</v>
-      </c>
-      <c r="B14">
-        <v>6562</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>6500</v>
-      </c>
-      <c r="B15">
-        <v>7140</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>7000</v>
-      </c>
-      <c r="B16">
-        <v>7740</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>7500</v>
-      </c>
-      <c r="B17">
-        <v>8340</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8000</v>
-      </c>
-      <c r="B18">
-        <v>8940</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4291FF55-69CA-46B7-9882-493198D5CB99}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>500</v>
-      </c>
-      <c r="B3">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1000</v>
-      </c>
-      <c r="B4">
-        <v>1045</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1500</v>
-      </c>
-      <c r="B5">
-        <v>1567</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2000</v>
-      </c>
-      <c r="B6">
-        <v>2108</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2500</v>
-      </c>
-      <c r="B7">
-        <v>2645</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3000</v>
-      </c>
-      <c r="B8">
-        <v>3197</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3500</v>
-      </c>
-      <c r="B9">
-        <v>3537</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4000</v>
-      </c>
-      <c r="B10">
-        <v>4292</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4500</v>
-      </c>
-      <c r="B11">
-        <v>4840</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5000</v>
-      </c>
-      <c r="B12">
-        <v>5405</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5500</v>
-      </c>
-      <c r="B13">
-        <v>5694</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6000</v>
-      </c>
-      <c r="B14">
-        <v>6544</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>6500</v>
-      </c>
-      <c r="B15">
-        <v>7122</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>7000</v>
-      </c>
-      <c r="B16">
-        <v>7715</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>7500</v>
-      </c>
-      <c r="B17">
-        <v>8308</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8000</v>
-      </c>
-      <c r="B18">
-        <v>8901</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CB8C1E29-305D-40C6-B082-44EE1B41EA33}">
-  <dimension ref="A1:B18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D19"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>500</v>
-      </c>
-      <c r="B3">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1000</v>
-      </c>
-      <c r="B4">
-        <v>1040</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1500</v>
-      </c>
-      <c r="B5">
-        <v>1562</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2000</v>
-      </c>
-      <c r="B6">
-        <v>2100</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2500</v>
-      </c>
-      <c r="B7">
-        <v>2632</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3000</v>
-      </c>
-      <c r="B8">
-        <v>3175</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3500</v>
-      </c>
-      <c r="B9">
-        <v>3710</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4000</v>
-      </c>
-      <c r="B10">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4500</v>
-      </c>
-      <c r="B11">
-        <v>4797</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5000</v>
-      </c>
-      <c r="B12">
-        <v>5355</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5500</v>
-      </c>
-      <c r="B13">
-        <v>5905</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6000</v>
-      </c>
-      <c r="B14">
-        <v>6477</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>6500</v>
-      </c>
-      <c r="B15">
-        <v>7048</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>7000</v>
-      </c>
-      <c r="B16">
-        <v>7635</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>7500</v>
-      </c>
-      <c r="B17">
-        <v>8222</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8000</v>
-      </c>
-      <c r="B18">
-        <v>8809</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8A383C4-FA93-4AD7-AF11-0ADF691DD7EA}">
-  <dimension ref="A1:C20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>500</v>
-      </c>
-      <c r="B3">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1000</v>
-      </c>
-      <c r="B4">
-        <v>1035</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>1500</v>
-      </c>
-      <c r="B5">
-        <v>1555</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2000</v>
-      </c>
-      <c r="B6">
-        <v>2092</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>2500</v>
-      </c>
-      <c r="B7">
-        <v>2620</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3000</v>
-      </c>
-      <c r="B8">
-        <v>3162</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>3500</v>
-      </c>
-      <c r="B9">
-        <v>3647</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4000</v>
-      </c>
-      <c r="B10">
-        <v>4240</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>4500</v>
-      </c>
-      <c r="B11">
-        <v>4670</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5000</v>
-      </c>
-      <c r="B12">
-        <v>5340</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>5500</v>
-      </c>
-      <c r="B13">
-        <v>5890</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>6000</v>
-      </c>
-      <c r="B14">
-        <v>6460</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>6500</v>
-      </c>
-      <c r="B15">
-        <v>7025</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>7000</v>
-      </c>
-      <c r="B16">
-        <v>7615</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>7500</v>
-      </c>
-      <c r="B17">
-        <v>8205</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>8000</v>
-      </c>
-      <c r="B18">
-        <v>8795</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="C20">
-        <f>7740-7140</f>
-        <v>600</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9161CE-1C6F-4D92-81DC-3297F1654651}">
-  <dimension ref="A1:B28"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <v>0</v>
-      </c>
-      <c r="B1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>520</v>
-      </c>
-      <c r="B2">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>1060</v>
-      </c>
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>1590</v>
-      </c>
-      <c r="B4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>2140</v>
-      </c>
-      <c r="B5">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>2675</v>
-      </c>
-      <c r="B6">
-        <v>510</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>3225</v>
-      </c>
-      <c r="B7">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>3760</v>
-      </c>
-      <c r="B8">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>4310</v>
-      </c>
-      <c r="B9">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>4840</v>
-      </c>
-      <c r="B10">
-        <v>920</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>5390</v>
-      </c>
-      <c r="B11">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5930</v>
-      </c>
-      <c r="B12">
-        <v>1120</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>6483</v>
-      </c>
-      <c r="B13">
-        <v>1220</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>7035</v>
-      </c>
-      <c r="B14">
-        <v>1320</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>7595</v>
-      </c>
-      <c r="B15">
-        <v>1420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>8160</v>
-      </c>
-      <c r="B16">
-        <v>1520</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>8740</v>
-      </c>
-      <c r="B17">
-        <v>1615</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18">
-        <v>1720</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19">
-        <v>1815</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B20">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B21">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22">
-        <v>2105</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B23">
-        <v>2205</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B24">
-        <v>2300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B25">
-        <v>2395</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B26">
-        <v>2490</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B27">
-        <v>2585</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B28">
-        <v>2680</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4773F7A4-FCA6-46D8-B7F7-454AF84B3CD1}">
   <dimension ref="A1:B29"/>
@@ -2414,10 +961,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A648D3-CA9B-4868-9F1D-6C476990B8DF}">
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B87"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2444,130 +991,684 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>500</v>
+        <v>100</v>
       </c>
       <c r="B3">
-        <v>475</v>
+        <v>95</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4">
-        <v>1000</v>
+        <v>200</v>
       </c>
       <c r="B4">
-        <v>965</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>1500</v>
+        <v>300</v>
       </c>
       <c r="B5">
-        <v>1465</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>2000</v>
+        <v>400</v>
       </c>
       <c r="B6">
-        <v>1955</v>
+        <v>390</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7">
-        <v>2500</v>
+        <v>500</v>
       </c>
       <c r="B7">
-        <v>2445</v>
+        <v>490</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8">
-        <v>3000</v>
+        <v>600</v>
       </c>
       <c r="B8">
-        <v>2945</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9">
-        <v>3500</v>
+        <v>700</v>
       </c>
       <c r="B9">
-        <v>3445</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>4000</v>
+        <v>800</v>
       </c>
       <c r="B10">
-        <v>3935</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>4500</v>
+        <v>900</v>
       </c>
       <c r="B11">
-        <v>4435</v>
+        <v>880</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>5000</v>
+        <v>1000</v>
       </c>
       <c r="B12">
-        <v>4930</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>5500</v>
+        <v>1100</v>
       </c>
       <c r="B13">
-        <v>5425</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>6000</v>
+        <v>1200</v>
       </c>
       <c r="B14">
-        <v>5920</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>6500</v>
+        <v>1300</v>
       </c>
       <c r="B15">
-        <v>6430</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>7000</v>
+        <v>1400</v>
       </c>
       <c r="B16">
-        <v>6940</v>
+        <v>1380</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>7500</v>
+        <v>1500</v>
       </c>
       <c r="B17">
-        <v>7445</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1675</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1780</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>2065</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2365</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <v>2565</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <v>2665</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2800</v>
+      </c>
+      <c r="B30">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2900</v>
+      </c>
+      <c r="B31">
+        <v>2865</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3000</v>
+      </c>
+      <c r="B32">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3100</v>
+      </c>
+      <c r="B33">
+        <v>3065</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3200</v>
+      </c>
+      <c r="B34">
+        <v>3165</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3300</v>
+      </c>
+      <c r="B35">
+        <v>3265</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3400</v>
+      </c>
+      <c r="B36">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3500</v>
+      </c>
+      <c r="B37">
+        <v>3460</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3600</v>
+      </c>
+      <c r="B38">
+        <v>3560</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3700</v>
+      </c>
+      <c r="B39">
+        <v>3660</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3800</v>
+      </c>
+      <c r="B40">
+        <v>3755</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3900</v>
+      </c>
+      <c r="B41">
+        <v>3855</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4000</v>
+      </c>
+      <c r="B42">
+        <v>3955</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4100</v>
+      </c>
+      <c r="B43">
+        <v>4055</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4200</v>
+      </c>
+      <c r="B44">
+        <v>4155</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4300</v>
+      </c>
+      <c r="B45">
+        <v>4245</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4400</v>
+      </c>
+      <c r="B46">
+        <v>4350</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4500</v>
+      </c>
+      <c r="B47">
+        <v>4450</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4600</v>
+      </c>
+      <c r="B48">
+        <v>4550</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4700</v>
+      </c>
+      <c r="B49">
+        <v>4640</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4800</v>
+      </c>
+      <c r="B50">
+        <v>4740</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4900</v>
+      </c>
+      <c r="B51">
+        <v>4845</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5000</v>
+      </c>
+      <c r="B52">
+        <v>4945</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5100</v>
+      </c>
+      <c r="B53">
+        <v>5045</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5200</v>
+      </c>
+      <c r="B54">
+        <v>5135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5300</v>
+      </c>
+      <c r="B55">
+        <v>5235</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5400</v>
+      </c>
+      <c r="B56">
+        <v>5340</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5500</v>
+      </c>
+      <c r="B57">
+        <v>5440</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5600</v>
+      </c>
+      <c r="B58">
+        <v>5535</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5700</v>
+      </c>
+      <c r="B59">
+        <v>5630</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5800</v>
+      </c>
+      <c r="B60">
+        <v>5735</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5900</v>
+      </c>
+      <c r="B61">
+        <v>5835</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6000</v>
+      </c>
+      <c r="B62">
+        <v>5935</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6100</v>
+      </c>
+      <c r="B63">
+        <v>6030</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6200</v>
+      </c>
+      <c r="B64">
+        <v>6130</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>6300</v>
+      </c>
+      <c r="B65">
+        <v>6230</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6400</v>
+      </c>
+      <c r="B66">
+        <v>6335</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6500</v>
+      </c>
+      <c r="B67">
+        <v>6430</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6600</v>
+      </c>
+      <c r="B68">
+        <v>6535</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6700</v>
+      </c>
+      <c r="B69">
+        <v>6635</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6800</v>
+      </c>
+      <c r="B70">
+        <v>6740</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>6900</v>
+      </c>
+      <c r="B71">
+        <v>6840</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7000</v>
+      </c>
+      <c r="B72">
+        <v>6935</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>7100</v>
+      </c>
+      <c r="B73">
+        <v>7035</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>7200</v>
+      </c>
+      <c r="B74">
+        <v>7140</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>7300</v>
+      </c>
+      <c r="B75">
+        <v>7240</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>7400</v>
+      </c>
+      <c r="B76">
+        <v>7335</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7500</v>
+      </c>
+      <c r="B77">
+        <v>7445</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>7600</v>
+      </c>
+      <c r="B78">
+        <v>7550</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7700</v>
+      </c>
+      <c r="B79">
+        <v>7650</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7800</v>
+      </c>
+      <c r="B80">
+        <v>7755</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>7900</v>
+      </c>
+      <c r="B81">
+        <v>7850</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
         <v>8000</v>
       </c>
-      <c r="B18">
-        <v>7975</v>
+      <c r="B82">
+        <v>7955</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>8100</v>
+      </c>
+      <c r="B83">
+        <v>8065</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8200</v>
+      </c>
+      <c r="B84">
+        <v>8170</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8300</v>
+      </c>
+      <c r="B85">
+        <v>8275</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>8400</v>
+      </c>
+      <c r="B86">
+        <f>8275+110</f>
+        <v>8385</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>8500</v>
+      </c>
+      <c r="B87">
+        <f>8385+110</f>
+        <v>8495</v>
       </c>
     </row>
   </sheetData>
@@ -2582,8 +1683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7104EA60-CE70-462D-A659-3DF377CD5840}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,7 +1714,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>95</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2629,7 +1730,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>275</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2637,7 +1738,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>370</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2645,7 +1746,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>470</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2653,7 +1754,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>565</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2669,7 +1770,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>750</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2685,7 +1786,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>940</v>
+        <v>935</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2693,7 +1794,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1030</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2701,7 +1802,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1125</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2709,7 +1810,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1210</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2717,7 +1818,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1305</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2725,7 +1826,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1405</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2733,7 +1834,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1490</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2741,7 +1842,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1580</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -2749,7 +1850,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1670</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -2757,7 +1858,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1760</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,7 +1866,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>1850</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -2773,7 +1874,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>1945</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -2781,7 +1882,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2035</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -2789,7 +1890,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2120</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -2797,7 +1898,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>2205</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -2805,7 +1906,7 @@
         <v>2500</v>
       </c>
       <c r="B27">
-        <v>2295</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -2813,8 +1914,7 @@
         <v>2600</v>
       </c>
       <c r="B28">
-        <f>2295+90</f>
-        <v>2385</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -2822,8 +1922,7 @@
         <v>2700</v>
       </c>
       <c r="B29">
-        <f>2385+90</f>
-        <v>2475</v>
+        <v>2440</v>
       </c>
     </row>
   </sheetData>
@@ -2835,11 +1934,1232 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB97CA96-0EDD-44F7-A09C-5888F725DB2E}">
-  <dimension ref="A1:B29"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9161CE-1C6F-4D92-81DC-3297F1654651}">
+  <dimension ref="A1:Q87"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B26"/>
+      <selection activeCell="A88" sqref="A88:XFD88"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="18.85546875" customWidth="1"/>
+    <col min="14" max="14" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="18.85546875" customWidth="1"/>
+    <col min="17" max="17" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>0</v>
+      </c>
+      <c r="D1">
+        <v>0</v>
+      </c>
+      <c r="E1">
+        <v>0</v>
+      </c>
+      <c r="G1">
+        <v>0</v>
+      </c>
+      <c r="H1">
+        <v>0</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>1</v>
+      </c>
+      <c r="P1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>520</v>
+      </c>
+      <c r="B2">
+        <v>100</v>
+      </c>
+      <c r="D2">
+        <v>500</v>
+      </c>
+      <c r="E2">
+        <v>490</v>
+      </c>
+      <c r="G2">
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <v>80</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>1060</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="D3">
+        <v>1000</v>
+      </c>
+      <c r="E3">
+        <v>980</v>
+      </c>
+      <c r="G3">
+        <v>200</v>
+      </c>
+      <c r="H3">
+        <v>180</v>
+      </c>
+      <c r="M3">
+        <v>100</v>
+      </c>
+      <c r="N3">
+        <v>90</v>
+      </c>
+      <c r="P3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1590</v>
+      </c>
+      <c r="B4">
+        <v>300</v>
+      </c>
+      <c r="D4">
+        <v>1500</v>
+      </c>
+      <c r="E4">
+        <v>1470</v>
+      </c>
+      <c r="G4">
+        <v>300</v>
+      </c>
+      <c r="H4">
+        <v>275</v>
+      </c>
+      <c r="M4">
+        <v>200</v>
+      </c>
+      <c r="N4">
+        <v>180</v>
+      </c>
+      <c r="P4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2140</v>
+      </c>
+      <c r="B5">
+        <v>410</v>
+      </c>
+      <c r="D5">
+        <v>2000</v>
+      </c>
+      <c r="E5">
+        <v>1970</v>
+      </c>
+      <c r="G5">
+        <v>400</v>
+      </c>
+      <c r="H5">
+        <v>375</v>
+      </c>
+      <c r="M5">
+        <v>300</v>
+      </c>
+      <c r="N5">
+        <v>280</v>
+      </c>
+      <c r="P5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2675</v>
+      </c>
+      <c r="B6">
+        <v>510</v>
+      </c>
+      <c r="D6">
+        <v>2500</v>
+      </c>
+      <c r="E6">
+        <v>2470</v>
+      </c>
+      <c r="G6">
+        <v>500</v>
+      </c>
+      <c r="H6">
+        <v>465</v>
+      </c>
+      <c r="M6">
+        <v>400</v>
+      </c>
+      <c r="N6">
+        <v>380</v>
+      </c>
+      <c r="P6">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3225</v>
+      </c>
+      <c r="B7">
+        <v>610</v>
+      </c>
+      <c r="D7">
+        <v>3000</v>
+      </c>
+      <c r="E7">
+        <v>2975</v>
+      </c>
+      <c r="G7">
+        <v>600</v>
+      </c>
+      <c r="H7">
+        <v>560</v>
+      </c>
+      <c r="M7">
+        <v>500</v>
+      </c>
+      <c r="N7">
+        <v>480</v>
+      </c>
+      <c r="P7">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3760</v>
+      </c>
+      <c r="B8">
+        <v>710</v>
+      </c>
+      <c r="D8">
+        <v>3500</v>
+      </c>
+      <c r="E8">
+        <v>3470</v>
+      </c>
+      <c r="G8">
+        <v>700</v>
+      </c>
+      <c r="H8">
+        <v>650</v>
+      </c>
+      <c r="M8">
+        <v>600</v>
+      </c>
+      <c r="N8">
+        <v>580</v>
+      </c>
+      <c r="P8">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>4310</v>
+      </c>
+      <c r="B9">
+        <v>812</v>
+      </c>
+      <c r="D9">
+        <v>4000</v>
+      </c>
+      <c r="E9">
+        <v>3970</v>
+      </c>
+      <c r="G9">
+        <v>800</v>
+      </c>
+      <c r="H9">
+        <v>740</v>
+      </c>
+      <c r="M9">
+        <v>700</v>
+      </c>
+      <c r="N9">
+        <v>680</v>
+      </c>
+      <c r="P9">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4840</v>
+      </c>
+      <c r="B10">
+        <v>920</v>
+      </c>
+      <c r="D10">
+        <v>4500</v>
+      </c>
+      <c r="E10">
+        <v>4465</v>
+      </c>
+      <c r="G10">
+        <v>900</v>
+      </c>
+      <c r="H10">
+        <v>830</v>
+      </c>
+      <c r="M10">
+        <v>800</v>
+      </c>
+      <c r="N10">
+        <v>780</v>
+      </c>
+      <c r="P10">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>5390</v>
+      </c>
+      <c r="B11">
+        <v>1020</v>
+      </c>
+      <c r="D11">
+        <v>5000</v>
+      </c>
+      <c r="E11">
+        <v>4960</v>
+      </c>
+      <c r="G11">
+        <v>1000</v>
+      </c>
+      <c r="H11">
+        <v>930</v>
+      </c>
+      <c r="M11">
+        <v>900</v>
+      </c>
+      <c r="N11">
+        <v>880</v>
+      </c>
+      <c r="P11">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5930</v>
+      </c>
+      <c r="B12">
+        <v>1120</v>
+      </c>
+      <c r="D12">
+        <v>5500</v>
+      </c>
+      <c r="E12">
+        <v>5460</v>
+      </c>
+      <c r="G12">
+        <v>1100</v>
+      </c>
+      <c r="H12">
+        <v>1020</v>
+      </c>
+      <c r="M12">
+        <v>1000</v>
+      </c>
+      <c r="N12">
+        <v>980</v>
+      </c>
+      <c r="P12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>6483</v>
+      </c>
+      <c r="B13">
+        <v>1220</v>
+      </c>
+      <c r="D13">
+        <v>6000</v>
+      </c>
+      <c r="E13">
+        <v>5960</v>
+      </c>
+      <c r="G13">
+        <v>1200</v>
+      </c>
+      <c r="H13">
+        <v>1105</v>
+      </c>
+      <c r="M13">
+        <v>1100</v>
+      </c>
+      <c r="N13">
+        <v>1070</v>
+      </c>
+      <c r="P13">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>7035</v>
+      </c>
+      <c r="B14">
+        <v>1320</v>
+      </c>
+      <c r="D14">
+        <v>6500</v>
+      </c>
+      <c r="E14">
+        <v>6450</v>
+      </c>
+      <c r="G14">
+        <v>1300</v>
+      </c>
+      <c r="H14">
+        <v>1200</v>
+      </c>
+      <c r="M14">
+        <v>1200</v>
+      </c>
+      <c r="N14">
+        <v>1170</v>
+      </c>
+      <c r="P14">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>7595</v>
+      </c>
+      <c r="B15">
+        <v>1420</v>
+      </c>
+      <c r="D15">
+        <v>7000</v>
+      </c>
+      <c r="E15">
+        <v>6955</v>
+      </c>
+      <c r="G15">
+        <v>1400</v>
+      </c>
+      <c r="H15">
+        <v>1290</v>
+      </c>
+      <c r="M15">
+        <v>1300</v>
+      </c>
+      <c r="N15">
+        <v>1270</v>
+      </c>
+      <c r="P15">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>8160</v>
+      </c>
+      <c r="B16">
+        <v>1520</v>
+      </c>
+      <c r="D16">
+        <v>7500</v>
+      </c>
+      <c r="E16">
+        <v>7460</v>
+      </c>
+      <c r="G16">
+        <v>1500</v>
+      </c>
+      <c r="H16">
+        <v>1380</v>
+      </c>
+      <c r="M16">
+        <v>1400</v>
+      </c>
+      <c r="N16">
+        <v>1375</v>
+      </c>
+      <c r="P16">
+        <v>1400</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>8740</v>
+      </c>
+      <c r="B17">
+        <v>1615</v>
+      </c>
+      <c r="D17">
+        <v>8000</v>
+      </c>
+      <c r="E17">
+        <v>7970</v>
+      </c>
+      <c r="G17">
+        <v>1600</v>
+      </c>
+      <c r="H17">
+        <v>1470</v>
+      </c>
+      <c r="M17">
+        <v>1500</v>
+      </c>
+      <c r="N17">
+        <v>1470</v>
+      </c>
+      <c r="P17">
+        <v>1500</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>1720</v>
+      </c>
+      <c r="D18">
+        <v>8500</v>
+      </c>
+      <c r="E18">
+        <v>8480</v>
+      </c>
+      <c r="G18">
+        <v>1700</v>
+      </c>
+      <c r="H18">
+        <v>1560</v>
+      </c>
+      <c r="M18">
+        <v>1600</v>
+      </c>
+      <c r="N18">
+        <v>1570</v>
+      </c>
+      <c r="P18">
+        <v>1600</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>1815</v>
+      </c>
+      <c r="G19">
+        <v>1800</v>
+      </c>
+      <c r="H19">
+        <v>1640</v>
+      </c>
+      <c r="M19">
+        <v>1700</v>
+      </c>
+      <c r="N19">
+        <v>1670</v>
+      </c>
+      <c r="P19">
+        <v>1700</v>
+      </c>
+    </row>
+    <row r="20" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>1915</v>
+      </c>
+      <c r="G20">
+        <v>1900</v>
+      </c>
+      <c r="H20">
+        <v>1730</v>
+      </c>
+      <c r="M20">
+        <v>1800</v>
+      </c>
+      <c r="N20">
+        <v>1770</v>
+      </c>
+      <c r="P20">
+        <v>1800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>2005</v>
+      </c>
+      <c r="G21">
+        <v>2000</v>
+      </c>
+      <c r="H21">
+        <v>1820</v>
+      </c>
+      <c r="M21">
+        <v>1900</v>
+      </c>
+      <c r="N21">
+        <v>1875</v>
+      </c>
+      <c r="P21">
+        <v>1900</v>
+      </c>
+    </row>
+    <row r="22" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>2105</v>
+      </c>
+      <c r="G22">
+        <v>2100</v>
+      </c>
+      <c r="H22">
+        <v>1910</v>
+      </c>
+      <c r="M22">
+        <v>2000</v>
+      </c>
+      <c r="N22">
+        <v>1970</v>
+      </c>
+      <c r="P22">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>2205</v>
+      </c>
+      <c r="G23">
+        <v>2200</v>
+      </c>
+      <c r="H23">
+        <v>1990</v>
+      </c>
+      <c r="M23">
+        <v>2100</v>
+      </c>
+      <c r="N23">
+        <v>2070</v>
+      </c>
+      <c r="P23">
+        <v>2100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>2300</v>
+      </c>
+      <c r="G24">
+        <v>2300</v>
+      </c>
+      <c r="H24">
+        <v>2080</v>
+      </c>
+      <c r="M24">
+        <v>2200</v>
+      </c>
+      <c r="N24">
+        <v>2170</v>
+      </c>
+      <c r="P24">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="25" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>2395</v>
+      </c>
+      <c r="G25">
+        <v>2400</v>
+      </c>
+      <c r="H25">
+        <v>2170</v>
+      </c>
+      <c r="M25">
+        <v>2300</v>
+      </c>
+      <c r="N25">
+        <v>2270</v>
+      </c>
+      <c r="P25">
+        <v>2300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>2490</v>
+      </c>
+      <c r="G26">
+        <v>2500</v>
+      </c>
+      <c r="H26">
+        <v>2250</v>
+      </c>
+      <c r="M26">
+        <v>2400</v>
+      </c>
+      <c r="N26">
+        <v>2370</v>
+      </c>
+      <c r="P26">
+        <v>2400</v>
+      </c>
+    </row>
+    <row r="27" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>2585</v>
+      </c>
+      <c r="G27">
+        <v>2600</v>
+      </c>
+      <c r="H27">
+        <v>2330</v>
+      </c>
+      <c r="M27">
+        <v>2500</v>
+      </c>
+      <c r="N27">
+        <v>2465</v>
+      </c>
+      <c r="P27">
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="28" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>2680</v>
+      </c>
+      <c r="G28">
+        <v>2700</v>
+      </c>
+      <c r="H28">
+        <v>2410</v>
+      </c>
+      <c r="M28">
+        <v>2600</v>
+      </c>
+      <c r="N28">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="29" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M29">
+        <v>2700</v>
+      </c>
+      <c r="N29">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M30">
+        <v>2800</v>
+      </c>
+      <c r="N30">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="31" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M31">
+        <v>2900</v>
+      </c>
+      <c r="N31">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="32" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="M32">
+        <v>3000</v>
+      </c>
+      <c r="N32">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="33" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M33">
+        <v>3100</v>
+      </c>
+      <c r="N33">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="34" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M34">
+        <v>3200</v>
+      </c>
+      <c r="N34">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="35" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M35">
+        <v>3300</v>
+      </c>
+      <c r="N35">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="36" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M36">
+        <v>3400</v>
+      </c>
+      <c r="N36">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="37" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M37">
+        <v>3500</v>
+      </c>
+      <c r="N37">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="38" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M38">
+        <v>3600</v>
+      </c>
+      <c r="N38">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="39" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M39">
+        <v>3700</v>
+      </c>
+      <c r="N39">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="40" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M40">
+        <v>3800</v>
+      </c>
+      <c r="N40">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="41" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M41">
+        <v>3900</v>
+      </c>
+      <c r="N41">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="42" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M42">
+        <v>4000</v>
+      </c>
+      <c r="N42">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="43" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M43">
+        <v>4100</v>
+      </c>
+      <c r="N43">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="44" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M44">
+        <v>4200</v>
+      </c>
+      <c r="N44">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="45" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M45">
+        <v>4300</v>
+      </c>
+      <c r="N45">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="46" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M46">
+        <v>4400</v>
+      </c>
+      <c r="N46">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="47" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M47">
+        <v>4500</v>
+      </c>
+      <c r="N47">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="48" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M48">
+        <v>4600</v>
+      </c>
+      <c r="N48">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M49">
+        <v>4700</v>
+      </c>
+      <c r="N49">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M50">
+        <v>4800</v>
+      </c>
+      <c r="N50">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="51" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M51">
+        <v>4900</v>
+      </c>
+      <c r="N51">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M52">
+        <v>5000</v>
+      </c>
+      <c r="N52">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M53">
+        <v>5100</v>
+      </c>
+      <c r="N53">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M54">
+        <v>5200</v>
+      </c>
+      <c r="N54">
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="55" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M55">
+        <v>5300</v>
+      </c>
+      <c r="N55">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="56" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M56">
+        <v>5400</v>
+      </c>
+      <c r="N56">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="57" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M57">
+        <v>5500</v>
+      </c>
+      <c r="N57">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="58" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M58">
+        <v>5600</v>
+      </c>
+      <c r="N58">
+        <v>5545</v>
+      </c>
+    </row>
+    <row r="59" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M59">
+        <v>5700</v>
+      </c>
+      <c r="N59">
+        <v>5645</v>
+      </c>
+    </row>
+    <row r="60" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M60">
+        <v>5800</v>
+      </c>
+      <c r="N60">
+        <v>5745</v>
+      </c>
+    </row>
+    <row r="61" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M61">
+        <v>5900</v>
+      </c>
+      <c r="N61">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="62" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M62">
+        <v>6000</v>
+      </c>
+      <c r="N62">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="63" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M63">
+        <v>6100</v>
+      </c>
+      <c r="N63">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="64" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M64">
+        <v>6200</v>
+      </c>
+      <c r="N64">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="65" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M65">
+        <v>6300</v>
+      </c>
+      <c r="N65">
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="66" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M66">
+        <v>6400</v>
+      </c>
+      <c r="N66">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="67" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M67">
+        <v>6500</v>
+      </c>
+      <c r="N67">
+        <v>6445</v>
+      </c>
+    </row>
+    <row r="68" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M68">
+        <v>6600</v>
+      </c>
+      <c r="N68">
+        <v>6545</v>
+      </c>
+    </row>
+    <row r="69" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M69">
+        <v>6700</v>
+      </c>
+      <c r="N69">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="70" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M70">
+        <v>6800</v>
+      </c>
+      <c r="N70">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="71" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M71">
+        <v>6900</v>
+      </c>
+      <c r="N71">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="72" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M72">
+        <v>7000</v>
+      </c>
+      <c r="N72">
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="73" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M73">
+        <v>7100</v>
+      </c>
+      <c r="N73">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="74" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M74">
+        <v>7200</v>
+      </c>
+      <c r="N74">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="75" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M75">
+        <v>7300</v>
+      </c>
+      <c r="N75">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="76" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M76">
+        <v>7400</v>
+      </c>
+      <c r="N76">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="77" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M77">
+        <v>7500</v>
+      </c>
+      <c r="N77">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="78" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M78">
+        <v>7600</v>
+      </c>
+      <c r="N78">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="79" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M79">
+        <v>7700</v>
+      </c>
+      <c r="N79">
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="80" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M80">
+        <v>7800</v>
+      </c>
+      <c r="N80">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="81" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M81">
+        <v>7900</v>
+      </c>
+      <c r="N81">
+        <v>7860</v>
+      </c>
+    </row>
+    <row r="82" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M82">
+        <v>8000</v>
+      </c>
+      <c r="N82">
+        <v>7965</v>
+      </c>
+    </row>
+    <row r="83" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M83">
+        <v>8100</v>
+      </c>
+      <c r="N83">
+        <v>8075</v>
+      </c>
+    </row>
+    <row r="84" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M84">
+        <v>8200</v>
+      </c>
+      <c r="N84">
+        <v>8018</v>
+      </c>
+      <c r="P84">
+        <f>+Table4[[#This Row],[Real_Measure]]-N84</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M85">
+        <v>8300</v>
+      </c>
+      <c r="N85">
+        <v>8285</v>
+      </c>
+    </row>
+    <row r="86" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M86">
+        <v>8400</v>
+      </c>
+      <c r="N86">
+        <v>8345</v>
+      </c>
+    </row>
+    <row r="87" spans="13:16" x14ac:dyDescent="0.25">
+      <c r="M87">
+        <v>8500</v>
+      </c>
+      <c r="N87">
+        <f>8345+267</f>
+        <v>8612</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E21D46-7736-4AF1-9452-9645BF1DB5C9}">
+  <dimension ref="A1:B87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2869,7 +3189,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>110</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -2877,7 +3197,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>210</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2885,7 +3205,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>310</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -2893,7 +3213,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>420</v>
+        <v>380</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -2901,7 +3221,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>525</v>
+        <v>480</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -2909,7 +3229,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>627</v>
+        <v>580</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -2917,7 +3237,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>727</v>
+        <v>680</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -2925,7 +3245,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>828</v>
+        <v>780</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2933,7 +3253,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>935</v>
+        <v>880</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -2941,7 +3261,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1039</v>
+        <v>980</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -2949,7 +3269,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1139</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -2957,7 +3277,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1242</v>
+        <v>1170</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -2965,7 +3285,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1347</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -2973,7 +3293,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1446</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -2981,7 +3301,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1546</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -2989,7 +3309,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1639</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -2997,7 +3317,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1749</v>
+        <v>1670</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3005,7 +3325,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1844</v>
+        <v>1770</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3013,7 +3333,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1943</v>
+        <v>1875</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3021,7 +3341,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2046</v>
+        <v>1970</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3029,7 +3349,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2140</v>
+        <v>2070</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,7 +3357,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2250</v>
+        <v>2170</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +3365,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2345</v>
+        <v>2270</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3373,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>2445</v>
+        <v>2370</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,8 +3381,7 @@
         <v>2500</v>
       </c>
       <c r="B27">
-        <f>B26+100</f>
-        <v>2545</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3070,8 +3389,7 @@
         <v>2600</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B29" si="0">B27+118</f>
-        <v>2663</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3079,266 +3397,472 @@
         <v>2700</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>2781</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF62CD5B-5BDD-4476-9093-BA6569FECEEE}">
-  <dimension ref="A1:M29"/>
-  <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>200</v>
-      </c>
-      <c r="B4">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>300</v>
-      </c>
-      <c r="B5">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>400</v>
-      </c>
-      <c r="B6">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>500</v>
-      </c>
-      <c r="B7">
-        <v>532</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>600</v>
-      </c>
-      <c r="B8">
-        <v>632</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>700</v>
-      </c>
-      <c r="B9">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>800</v>
-      </c>
-      <c r="B10">
-        <v>836</v>
-      </c>
-      <c r="M10" s="1"/>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>900</v>
-      </c>
-      <c r="B11">
-        <v>946</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1000</v>
-      </c>
-      <c r="B12">
-        <v>1053</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1100</v>
-      </c>
-      <c r="B13">
-        <v>1151</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1200</v>
-      </c>
-      <c r="B14">
-        <v>1252</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1300</v>
-      </c>
-      <c r="B15">
-        <v>1361</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1400</v>
-      </c>
-      <c r="B16">
-        <v>1462</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1500</v>
-      </c>
-      <c r="B17">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1600</v>
-      </c>
-      <c r="B18">
-        <v>1660</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1700</v>
-      </c>
-      <c r="B19">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1800</v>
-      </c>
-      <c r="B20">
-        <v>1870</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1900</v>
-      </c>
-      <c r="B21">
-        <v>1966</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2000</v>
-      </c>
-      <c r="B22">
-        <v>2063</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2100</v>
-      </c>
-      <c r="B23">
-        <v>2164</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2200</v>
-      </c>
-      <c r="B24">
-        <v>2271</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2300</v>
-      </c>
-      <c r="B25">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2400</v>
-      </c>
-      <c r="B26">
-        <v>2462</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2500</v>
-      </c>
-      <c r="B27">
-        <f>B26+118</f>
-        <v>2580</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2600</v>
-      </c>
-      <c r="B28">
-        <f t="shared" ref="B28:B29" si="0">B27+118</f>
-        <v>2698</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2700</v>
-      </c>
-      <c r="B29">
-        <f t="shared" si="0"/>
-        <v>2816</v>
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2800</v>
+      </c>
+      <c r="B30">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2900</v>
+      </c>
+      <c r="B31">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3000</v>
+      </c>
+      <c r="B32">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3100</v>
+      </c>
+      <c r="B33">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3200</v>
+      </c>
+      <c r="B34">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3300</v>
+      </c>
+      <c r="B35">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3400</v>
+      </c>
+      <c r="B36">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3500</v>
+      </c>
+      <c r="B37">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3600</v>
+      </c>
+      <c r="B38">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3700</v>
+      </c>
+      <c r="B39">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3800</v>
+      </c>
+      <c r="B40">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3900</v>
+      </c>
+      <c r="B41">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4000</v>
+      </c>
+      <c r="B42">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4100</v>
+      </c>
+      <c r="B43">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4200</v>
+      </c>
+      <c r="B44">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4300</v>
+      </c>
+      <c r="B45">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4400</v>
+      </c>
+      <c r="B46">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4500</v>
+      </c>
+      <c r="B47">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4600</v>
+      </c>
+      <c r="B48">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4700</v>
+      </c>
+      <c r="B49">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4800</v>
+      </c>
+      <c r="B50">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4900</v>
+      </c>
+      <c r="B51">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5000</v>
+      </c>
+      <c r="B52">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5100</v>
+      </c>
+      <c r="B53">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5200</v>
+      </c>
+      <c r="B54">
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5300</v>
+      </c>
+      <c r="B55">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5400</v>
+      </c>
+      <c r="B56">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5500</v>
+      </c>
+      <c r="B57">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5600</v>
+      </c>
+      <c r="B58">
+        <v>5545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5700</v>
+      </c>
+      <c r="B59">
+        <v>5645</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5800</v>
+      </c>
+      <c r="B60">
+        <v>5745</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5900</v>
+      </c>
+      <c r="B61">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6000</v>
+      </c>
+      <c r="B62">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6100</v>
+      </c>
+      <c r="B63">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6200</v>
+      </c>
+      <c r="B64">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>6300</v>
+      </c>
+      <c r="B65">
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6400</v>
+      </c>
+      <c r="B66">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6500</v>
+      </c>
+      <c r="B67">
+        <v>6445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6600</v>
+      </c>
+      <c r="B68">
+        <v>6545</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6700</v>
+      </c>
+      <c r="B69">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6800</v>
+      </c>
+      <c r="B70">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>6900</v>
+      </c>
+      <c r="B71">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7000</v>
+      </c>
+      <c r="B72">
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>7100</v>
+      </c>
+      <c r="B73">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>7200</v>
+      </c>
+      <c r="B74">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>7300</v>
+      </c>
+      <c r="B75">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>7400</v>
+      </c>
+      <c r="B76">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7500</v>
+      </c>
+      <c r="B77">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>7600</v>
+      </c>
+      <c r="B78">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7700</v>
+      </c>
+      <c r="B79">
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7800</v>
+      </c>
+      <c r="B80">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>7900</v>
+      </c>
+      <c r="B81">
+        <v>7860</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>8000</v>
+      </c>
+      <c r="B82">
+        <v>7965</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>8100</v>
+      </c>
+      <c r="B83">
+        <v>8075</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8200</v>
+      </c>
+      <c r="B84">
+        <v>8018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8300</v>
+      </c>
+      <c r="B85">
+        <v>8285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>8400</v>
+      </c>
+      <c r="B86">
+        <v>8345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>8500</v>
+      </c>
+      <c r="B87">
+        <f>8345+110</f>
+        <v>8455</v>
       </c>
     </row>
   </sheetData>
@@ -3350,11 +3874,11 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{132ACC4C-8D63-4A6E-BFCC-1DB2C31C4E80}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6BDCF8-29FB-406A-9D6E-BAFCDFC51D75}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3384,7 +3908,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>119</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3392,7 +3916,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>219</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3400,7 +3924,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>325</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3408,7 +3932,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>432</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3416,7 +3940,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>537</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3424,7 +3948,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>638</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3432,7 +3956,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>742</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3440,7 +3964,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>846</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3448,7 +3972,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>952</v>
+        <v>836</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3456,7 +3980,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1055</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3464,7 +3988,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1154</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3472,7 +3996,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1255</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3480,7 +4004,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1365</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3488,7 +4012,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1465</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3496,7 +4020,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1565</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3504,7 +4028,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1665</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3512,7 +4036,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1770</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3520,7 +4044,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1870</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3528,7 +4052,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1965</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3536,7 +4060,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2065</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3544,7 +4068,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2163</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3552,7 +4076,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2270</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3560,7 +4084,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2370</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3568,7 +4092,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>2465</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3576,8 +4100,7 @@
         <v>2500</v>
       </c>
       <c r="B27">
-        <f>B26+100</f>
-        <v>2565</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3585,8 +4108,7 @@
         <v>2600</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B29" si="0">B27+118</f>
-        <v>2683</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3594,8 +4116,7 @@
         <v>2700</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>2801</v>
+        <v>2430</v>
       </c>
     </row>
   </sheetData>
@@ -3607,11 +4128,11 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{874DC80E-83F0-4EAC-BC71-AB6869434182}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A35489-D148-4BA8-9820-D3A4ACF2A8FD}">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B25"/>
+      <selection activeCell="F10" sqref="F10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3641,7 +4162,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>115</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3649,7 +4170,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>215</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3657,7 +4178,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>320</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3665,7 +4186,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>435</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3673,7 +4194,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>539</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3681,7 +4202,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>642</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3689,7 +4210,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>745</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3697,7 +4218,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>847</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3705,7 +4226,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>958</v>
+        <v>836</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3713,7 +4234,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1060</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3721,7 +4242,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1162</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3729,7 +4250,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1268</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3737,7 +4258,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1377</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -3745,7 +4266,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1480</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -3753,7 +4274,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1580</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -3761,7 +4282,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1682</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -3769,7 +4290,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1794</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -3777,7 +4298,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1894</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -3785,7 +4306,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1990</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -3793,7 +4314,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2097</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -3801,7 +4322,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2192</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -3809,7 +4330,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2300</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -3817,7 +4338,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2402</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -3825,7 +4346,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>2455</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -3833,8 +4354,7 @@
         <v>2500</v>
       </c>
       <c r="B27">
-        <f>B26+100</f>
-        <v>2555</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -3842,8 +4362,7 @@
         <v>2600</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B29" si="0">B27+118</f>
-        <v>2673</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -3851,8 +4370,7 @@
         <v>2700</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>2791</v>
+        <v>2430</v>
       </c>
     </row>
   </sheetData>
@@ -3864,11 +4382,11 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{22188163-57AE-432A-BE0D-7E19A05572A5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7C295E-C229-4447-9475-CA795BC8776A}">
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:B24"/>
+      <selection activeCell="B2" sqref="B2:B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3898,7 +4416,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>114</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -3906,7 +4424,7 @@
         <v>200</v>
       </c>
       <c r="B4">
-        <v>218</v>
+        <v>185</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -3914,7 +4432,7 @@
         <v>300</v>
       </c>
       <c r="B5">
-        <v>322</v>
+        <v>280</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
@@ -3922,7 +4440,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>437</v>
+        <v>375</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -3930,7 +4448,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>543</v>
+        <v>465</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -3938,7 +4456,7 @@
         <v>600</v>
       </c>
       <c r="B8">
-        <v>650</v>
+        <v>560</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
@@ -3946,7 +4464,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>751</v>
+        <v>655</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -3954,7 +4472,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>855</v>
+        <v>745</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -3962,7 +4480,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>966</v>
+        <v>840</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -3970,7 +4488,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>1072</v>
+        <v>935</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -3978,7 +4496,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1175</v>
+        <v>1020</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -3986,7 +4504,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1280</v>
+        <v>1115</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -3994,7 +4512,7 @@
         <v>1300</v>
       </c>
       <c r="B15">
-        <v>1387</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
@@ -4002,7 +4520,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1492</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -4010,7 +4528,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1600</v>
+        <v>1385</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -4018,7 +4536,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1700</v>
+        <v>1475</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -4026,7 +4544,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1808</v>
+        <v>1570</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -4034,7 +4552,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1910</v>
+        <v>1650</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -4042,7 +4560,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>2012</v>
+        <v>1745</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -4050,7 +4568,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>2114</v>
+        <v>1835</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -4058,7 +4576,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>2217</v>
+        <v>1915</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -4066,7 +4584,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2322</v>
+        <v>2005</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -4074,7 +4592,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2363</v>
+        <v>2095</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -4082,7 +4600,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>2455</v>
+        <v>2180</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -4090,8 +4608,7 @@
         <v>2500</v>
       </c>
       <c r="B27">
-        <f>B26+100</f>
-        <v>2555</v>
+        <v>2265</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -4099,8 +4616,7 @@
         <v>2600</v>
       </c>
       <c r="B28">
-        <f t="shared" ref="B28:B29" si="0">B27+118</f>
-        <v>2673</v>
+        <v>2355</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -4108,8 +4624,7 @@
         <v>2700</v>
       </c>
       <c r="B29">
-        <f t="shared" si="0"/>
-        <v>2791</v>
+        <v>2440</v>
       </c>
     </row>
   </sheetData>

--- a/Table_Calib.xlsx
+++ b/Table_Calib.xlsx
@@ -8,20 +8,20 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Lopez\PycharmProjects\ProjectJP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F1741B-1416-4D71-AEF8-60D686D5BBE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDD417E-7D83-40F0-898C-161DBCD4ADA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="25980" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
   </bookViews>
   <sheets>
     <sheet name="X_axis" sheetId="1" r:id="rId1"/>
     <sheet name="Y_axis" sheetId="2" r:id="rId2"/>
     <sheet name="X_axis_RP" sheetId="3" r:id="rId3"/>
     <sheet name="Y_axis_RP" sheetId="10" r:id="rId4"/>
-    <sheet name="bkp" sheetId="16" r:id="rId5"/>
-    <sheet name="X_axis_RP_bkp" sheetId="19" r:id="rId6"/>
-    <sheet name="Y_axis_RP_bkp" sheetId="20" r:id="rId7"/>
-    <sheet name="Y_axis_RP_bkp2" sheetId="21" r:id="rId8"/>
-    <sheet name="Y_axis_RP_bkp3" sheetId="22" r:id="rId9"/>
+    <sheet name="X_axis_RP_bkp" sheetId="19" r:id="rId5"/>
+    <sheet name="Y_axis_RP_bkp" sheetId="20" r:id="rId6"/>
+    <sheet name="Y_axis_RP_bkp2" sheetId="21" r:id="rId7"/>
+    <sheet name="Y_axis_RP_bkp3" sheetId="22" r:id="rId8"/>
+    <sheet name="bkp" sheetId="16" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -116,11 +116,11 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{995583CF-49FB-4033-A013-02A0796DC037}" name="Table1351110" displayName="Table1351110" ref="A1:B29" totalsRowShown="0">
-  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6452D2F8-D7E6-45DA-9568-B828C6A7B373}" name="Table5" displayName="Table5" ref="P1:Q27" totalsRowShown="0">
+  <autoFilter ref="P1:Q27" xr:uid="{6452D2F8-D7E6-45DA-9568-B828C6A7B373}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{9EE76591-28FB-44CD-8025-8A3B67DAF279}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{2B2DF887-AB2A-43B0-BFDC-3CC10F886DAA}" name="Real_Measure"/>
+    <tableColumn id="1" xr3:uid="{B5562EAA-2DE0-47C8-94BD-81224F7A0572}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{3FD259D3-91FA-4623-9830-9E01636967BA}" name="Real_Measure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -162,28 +162,6 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{48BF94DA-5410-4D96-B294-4B3FD1069DDB}" name="Table4" displayName="Table4" ref="M1:N87" totalsRowShown="0">
-  <autoFilter ref="M1:N87" xr:uid="{48BF94DA-5410-4D96-B294-4B3FD1069DDB}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{A6EBB768-AE7B-445A-9184-05BB0AABBD5A}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{723E9AC3-E0EA-4F1F-9367-1E3EA74A9FF1}" name="Real_Measure"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{6452D2F8-D7E6-45DA-9568-B828C6A7B373}" name="Table5" displayName="Table5" ref="P1:Q27" totalsRowShown="0">
-  <autoFilter ref="P1:Q27" xr:uid="{6452D2F8-D7E6-45DA-9568-B828C6A7B373}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{B5562EAA-2DE0-47C8-94BD-81224F7A0572}" name="Autocad_Measure"/>
-    <tableColumn id="2" xr3:uid="{3FD259D3-91FA-4623-9830-9E01636967BA}" name="Real_Measure"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{3E803036-A2B3-49BE-9962-046BE4999757}" name="Table147" displayName="Table147" ref="A1:B87" totalsRowShown="0">
   <autoFilter ref="A1:B87" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
   <tableColumns count="2">
@@ -194,7 +172,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{DF83C84F-5714-4BF8-BF45-4BE330FE6D15}" name="Table135118" displayName="Table135118" ref="A1:B29" totalsRowShown="0">
   <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
   <tableColumns count="2">
@@ -205,12 +183,34 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{D98E44B8-5AF4-4576-9160-A4B3D32E408C}" name="Table135119" displayName="Table135119" ref="A1:B29" totalsRowShown="0">
   <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{A807C692-3196-4EFD-AF24-A683C719A560}" name="Autocad_Measure"/>
     <tableColumn id="2" xr3:uid="{014B985F-955F-4DD7-B2FC-CC49724AB0FF}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{995583CF-49FB-4033-A013-02A0796DC037}" name="Table1351110" displayName="Table1351110" ref="A1:B29" totalsRowShown="0">
+  <autoFilter ref="A1:B29" xr:uid="{7DF6B0F3-285B-4FF2-B7D3-72DA948E247A}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{9EE76591-28FB-44CD-8025-8A3B67DAF279}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{2B2DF887-AB2A-43B0-BFDC-3CC10F886DAA}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{48BF94DA-5410-4D96-B294-4B3FD1069DDB}" name="Table4" displayName="Table4" ref="M1:N87" totalsRowShown="0">
+  <autoFilter ref="M1:N87" xr:uid="{48BF94DA-5410-4D96-B294-4B3FD1069DDB}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{A6EBB768-AE7B-445A-9184-05BB0AABBD5A}" name="Autocad_Measure"/>
+    <tableColumn id="2" xr3:uid="{723E9AC3-E0EA-4F1F-9367-1E3EA74A9FF1}" name="Real_Measure"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1684,7 +1684,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1714,7 +1714,7 @@
         <v>100</v>
       </c>
       <c r="B3">
-        <v>85</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
@@ -1738,7 +1738,7 @@
         <v>400</v>
       </c>
       <c r="B6">
-        <v>375</v>
+        <v>376</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
@@ -1746,7 +1746,7 @@
         <v>500</v>
       </c>
       <c r="B7">
-        <v>465</v>
+        <v>466</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
@@ -1762,7 +1762,7 @@
         <v>700</v>
       </c>
       <c r="B9">
-        <v>655</v>
+        <v>656</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
@@ -1770,7 +1770,7 @@
         <v>800</v>
       </c>
       <c r="B10">
-        <v>745</v>
+        <v>740</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -1778,7 +1778,7 @@
         <v>900</v>
       </c>
       <c r="B11">
-        <v>840</v>
+        <v>836</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
@@ -1786,7 +1786,7 @@
         <v>1000</v>
       </c>
       <c r="B12">
-        <v>935</v>
+        <v>930</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
@@ -1794,7 +1794,7 @@
         <v>1100</v>
       </c>
       <c r="B13">
-        <v>1020</v>
+        <v>1016</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
@@ -1802,7 +1802,7 @@
         <v>1200</v>
       </c>
       <c r="B14">
-        <v>1115</v>
+        <v>1110</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
@@ -1818,7 +1818,7 @@
         <v>1400</v>
       </c>
       <c r="B16">
-        <v>1300</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
@@ -1826,7 +1826,7 @@
         <v>1500</v>
       </c>
       <c r="B17">
-        <v>1385</v>
+        <v>1376</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
@@ -1834,7 +1834,7 @@
         <v>1600</v>
       </c>
       <c r="B18">
-        <v>1475</v>
+        <v>1470</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
@@ -1842,7 +1842,7 @@
         <v>1700</v>
       </c>
       <c r="B19">
-        <v>1570</v>
+        <v>1560</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.25">
@@ -1850,7 +1850,7 @@
         <v>1800</v>
       </c>
       <c r="B20">
-        <v>1650</v>
+        <v>1646</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.25">
@@ -1858,7 +1858,7 @@
         <v>1900</v>
       </c>
       <c r="B21">
-        <v>1745</v>
+        <v>1736</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.25">
@@ -1866,7 +1866,7 @@
         <v>2000</v>
       </c>
       <c r="B22">
-        <v>1835</v>
+        <v>1826</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.25">
@@ -1874,7 +1874,7 @@
         <v>2100</v>
       </c>
       <c r="B23">
-        <v>1915</v>
+        <v>1906</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
@@ -1882,7 +1882,7 @@
         <v>2200</v>
       </c>
       <c r="B24">
-        <v>2005</v>
+        <v>1990</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
@@ -1890,7 +1890,7 @@
         <v>2300</v>
       </c>
       <c r="B25">
-        <v>2095</v>
+        <v>2086</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
@@ -1898,7 +1898,7 @@
         <v>2400</v>
       </c>
       <c r="B26">
-        <v>2180</v>
+        <v>2176</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
@@ -1906,7 +1906,7 @@
         <v>2500</v>
       </c>
       <c r="B27">
-        <v>2265</v>
+        <v>2256</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
@@ -1914,7 +1914,7 @@
         <v>2600</v>
       </c>
       <c r="B28">
-        <v>2355</v>
+        <v>2346</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
@@ -1922,7 +1922,7 @@
         <v>2700</v>
       </c>
       <c r="B29">
-        <v>2440</v>
+        <v>2430</v>
       </c>
     </row>
   </sheetData>
@@ -1934,6 +1934,1487 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E21D46-7736-4AF1-9452-9645BF1DB5C9}">
+  <dimension ref="A1:B87"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>580</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>780</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>1375</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1670</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1770</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1875</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>1970</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>2070</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>2170</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2270</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2370</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <v>2465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <v>2570</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <v>2670</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2800</v>
+      </c>
+      <c r="B30">
+        <v>2770</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>2900</v>
+      </c>
+      <c r="B31">
+        <v>2870</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>3000</v>
+      </c>
+      <c r="B32">
+        <v>2965</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>3100</v>
+      </c>
+      <c r="B33">
+        <v>3070</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>3200</v>
+      </c>
+      <c r="B34">
+        <v>3170</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3300</v>
+      </c>
+      <c r="B35">
+        <v>3270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>3400</v>
+      </c>
+      <c r="B36">
+        <v>3365</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>3500</v>
+      </c>
+      <c r="B37">
+        <v>3465</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>3600</v>
+      </c>
+      <c r="B38">
+        <v>3565</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3700</v>
+      </c>
+      <c r="B39">
+        <v>3670</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>3800</v>
+      </c>
+      <c r="B40">
+        <v>3760</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>3900</v>
+      </c>
+      <c r="B41">
+        <v>3860</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>4000</v>
+      </c>
+      <c r="B42">
+        <v>3960</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>4100</v>
+      </c>
+      <c r="B43">
+        <v>4060</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4200</v>
+      </c>
+      <c r="B44">
+        <v>4160</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4300</v>
+      </c>
+      <c r="B45">
+        <v>4255</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>4400</v>
+      </c>
+      <c r="B46">
+        <v>4355</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>4500</v>
+      </c>
+      <c r="B47">
+        <v>4455</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4600</v>
+      </c>
+      <c r="B48">
+        <v>4555</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>4700</v>
+      </c>
+      <c r="B49">
+        <v>4650</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>4800</v>
+      </c>
+      <c r="B50">
+        <v>4750</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>4900</v>
+      </c>
+      <c r="B51">
+        <v>4850</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>5000</v>
+      </c>
+      <c r="B52">
+        <v>4950</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>5100</v>
+      </c>
+      <c r="B53">
+        <v>5050</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>5200</v>
+      </c>
+      <c r="B54">
+        <v>5145</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>5300</v>
+      </c>
+      <c r="B55">
+        <v>5245</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>5400</v>
+      </c>
+      <c r="B56">
+        <v>5345</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>5500</v>
+      </c>
+      <c r="B57">
+        <v>5445</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>5600</v>
+      </c>
+      <c r="B58">
+        <v>5545</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>5700</v>
+      </c>
+      <c r="B59">
+        <v>5645</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>5800</v>
+      </c>
+      <c r="B60">
+        <v>5745</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>5900</v>
+      </c>
+      <c r="B61">
+        <v>5850</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>6000</v>
+      </c>
+      <c r="B62">
+        <v>5950</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>6100</v>
+      </c>
+      <c r="B63">
+        <v>6040</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>6200</v>
+      </c>
+      <c r="B64">
+        <v>6140</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>6300</v>
+      </c>
+      <c r="B65">
+        <v>6245</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6400</v>
+      </c>
+      <c r="B66">
+        <v>6350</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>6500</v>
+      </c>
+      <c r="B67">
+        <v>6445</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>6600</v>
+      </c>
+      <c r="B68">
+        <v>6545</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>6700</v>
+      </c>
+      <c r="B69">
+        <v>6650</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>6800</v>
+      </c>
+      <c r="B70">
+        <v>6750</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>6900</v>
+      </c>
+      <c r="B71">
+        <v>6850</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>7000</v>
+      </c>
+      <c r="B72">
+        <v>6950</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>7100</v>
+      </c>
+      <c r="B73">
+        <v>7050</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>7200</v>
+      </c>
+      <c r="B74">
+        <v>7150</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>7300</v>
+      </c>
+      <c r="B75">
+        <v>7250</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>7400</v>
+      </c>
+      <c r="B76">
+        <v>7350</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>7500</v>
+      </c>
+      <c r="B77">
+        <v>7450</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>7600</v>
+      </c>
+      <c r="B78">
+        <v>7560</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>7700</v>
+      </c>
+      <c r="B79">
+        <v>7660</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>7800</v>
+      </c>
+      <c r="B80">
+        <v>7770</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>7900</v>
+      </c>
+      <c r="B81">
+        <v>7860</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>8000</v>
+      </c>
+      <c r="B82">
+        <v>7965</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>8100</v>
+      </c>
+      <c r="B83">
+        <v>8075</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>8200</v>
+      </c>
+      <c r="B84">
+        <v>8018</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>8300</v>
+      </c>
+      <c r="B85">
+        <v>8285</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>8400</v>
+      </c>
+      <c r="B86">
+        <v>8345</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>8500</v>
+      </c>
+      <c r="B87">
+        <f>8345+110</f>
+        <v>8455</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6BDCF8-29FB-406A-9D6E-BAFCDFC51D75}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <v>2430</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A35489-D148-4BA8-9820-D3A4ACF2A8FD}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2:B29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>656</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1376</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1470</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1560</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1646</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1736</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>1826</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>1906</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>1990</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2086</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2176</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <v>2256</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <v>2346</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <v>2430</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7C295E-C229-4447-9475-CA795BC8776A}">
+  <dimension ref="A1:B29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:C1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" customWidth="1"/>
+    <col min="2" max="2" width="15.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>100</v>
+      </c>
+      <c r="B3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>200</v>
+      </c>
+      <c r="B4">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>300</v>
+      </c>
+      <c r="B5">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>400</v>
+      </c>
+      <c r="B6">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>500</v>
+      </c>
+      <c r="B7">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>600</v>
+      </c>
+      <c r="B8">
+        <v>560</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>700</v>
+      </c>
+      <c r="B9">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>800</v>
+      </c>
+      <c r="B10">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>900</v>
+      </c>
+      <c r="B11">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>1000</v>
+      </c>
+      <c r="B12">
+        <v>935</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1100</v>
+      </c>
+      <c r="B13">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>1200</v>
+      </c>
+      <c r="B14">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>1300</v>
+      </c>
+      <c r="B15">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>1400</v>
+      </c>
+      <c r="B16">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1500</v>
+      </c>
+      <c r="B17">
+        <v>1385</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>1600</v>
+      </c>
+      <c r="B18">
+        <v>1475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>1700</v>
+      </c>
+      <c r="B19">
+        <v>1570</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>1800</v>
+      </c>
+      <c r="B20">
+        <v>1650</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1900</v>
+      </c>
+      <c r="B21">
+        <v>1745</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2000</v>
+      </c>
+      <c r="B22">
+        <v>1835</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2100</v>
+      </c>
+      <c r="B23">
+        <v>1915</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2200</v>
+      </c>
+      <c r="B24">
+        <v>2005</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>2300</v>
+      </c>
+      <c r="B25">
+        <v>2095</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2400</v>
+      </c>
+      <c r="B26">
+        <v>2180</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>2500</v>
+      </c>
+      <c r="B27">
+        <v>2265</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>2600</v>
+      </c>
+      <c r="B28">
+        <v>2355</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>2700</v>
+      </c>
+      <c r="B29">
+        <v>2440</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7E9161CE-1C6F-4D92-81DC-3297F1654651}">
   <dimension ref="A1:Q87"/>
   <sheetViews>
@@ -3152,1485 +4633,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D9E21D46-7736-4AF1-9452-9645BF1DB5C9}">
-  <dimension ref="A1:B87"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>200</v>
-      </c>
-      <c r="B4">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>300</v>
-      </c>
-      <c r="B5">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>400</v>
-      </c>
-      <c r="B6">
-        <v>380</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>500</v>
-      </c>
-      <c r="B7">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>600</v>
-      </c>
-      <c r="B8">
-        <v>580</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>700</v>
-      </c>
-      <c r="B9">
-        <v>680</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>800</v>
-      </c>
-      <c r="B10">
-        <v>780</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>900</v>
-      </c>
-      <c r="B11">
-        <v>880</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1000</v>
-      </c>
-      <c r="B12">
-        <v>980</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1100</v>
-      </c>
-      <c r="B13">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1200</v>
-      </c>
-      <c r="B14">
-        <v>1170</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1300</v>
-      </c>
-      <c r="B15">
-        <v>1270</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1400</v>
-      </c>
-      <c r="B16">
-        <v>1375</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1500</v>
-      </c>
-      <c r="B17">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1600</v>
-      </c>
-      <c r="B18">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1700</v>
-      </c>
-      <c r="B19">
-        <v>1670</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1800</v>
-      </c>
-      <c r="B20">
-        <v>1770</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1900</v>
-      </c>
-      <c r="B21">
-        <v>1875</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2000</v>
-      </c>
-      <c r="B22">
-        <v>1970</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2100</v>
-      </c>
-      <c r="B23">
-        <v>2070</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2200</v>
-      </c>
-      <c r="B24">
-        <v>2170</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2300</v>
-      </c>
-      <c r="B25">
-        <v>2270</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2400</v>
-      </c>
-      <c r="B26">
-        <v>2370</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2500</v>
-      </c>
-      <c r="B27">
-        <v>2465</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2600</v>
-      </c>
-      <c r="B28">
-        <v>2570</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2700</v>
-      </c>
-      <c r="B29">
-        <v>2670</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>2800</v>
-      </c>
-      <c r="B30">
-        <v>2770</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>2900</v>
-      </c>
-      <c r="B31">
-        <v>2870</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32">
-        <v>3000</v>
-      </c>
-      <c r="B32">
-        <v>2965</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33">
-        <v>3100</v>
-      </c>
-      <c r="B33">
-        <v>3070</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34">
-        <v>3200</v>
-      </c>
-      <c r="B34">
-        <v>3170</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35">
-        <v>3300</v>
-      </c>
-      <c r="B35">
-        <v>3270</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>3400</v>
-      </c>
-      <c r="B36">
-        <v>3365</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>3500</v>
-      </c>
-      <c r="B37">
-        <v>3465</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>3600</v>
-      </c>
-      <c r="B38">
-        <v>3565</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>3700</v>
-      </c>
-      <c r="B39">
-        <v>3670</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>3800</v>
-      </c>
-      <c r="B40">
-        <v>3760</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>3900</v>
-      </c>
-      <c r="B41">
-        <v>3860</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>4000</v>
-      </c>
-      <c r="B42">
-        <v>3960</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>4100</v>
-      </c>
-      <c r="B43">
-        <v>4060</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>4200</v>
-      </c>
-      <c r="B44">
-        <v>4160</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>4300</v>
-      </c>
-      <c r="B45">
-        <v>4255</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>4400</v>
-      </c>
-      <c r="B46">
-        <v>4355</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>4500</v>
-      </c>
-      <c r="B47">
-        <v>4455</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>4600</v>
-      </c>
-      <c r="B48">
-        <v>4555</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>4700</v>
-      </c>
-      <c r="B49">
-        <v>4650</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>4800</v>
-      </c>
-      <c r="B50">
-        <v>4750</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>4900</v>
-      </c>
-      <c r="B51">
-        <v>4850</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>5000</v>
-      </c>
-      <c r="B52">
-        <v>4950</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>5100</v>
-      </c>
-      <c r="B53">
-        <v>5050</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>5200</v>
-      </c>
-      <c r="B54">
-        <v>5145</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>5300</v>
-      </c>
-      <c r="B55">
-        <v>5245</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>5400</v>
-      </c>
-      <c r="B56">
-        <v>5345</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>5500</v>
-      </c>
-      <c r="B57">
-        <v>5445</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>5600</v>
-      </c>
-      <c r="B58">
-        <v>5545</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>5700</v>
-      </c>
-      <c r="B59">
-        <v>5645</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>5800</v>
-      </c>
-      <c r="B60">
-        <v>5745</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>5900</v>
-      </c>
-      <c r="B61">
-        <v>5850</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62">
-        <v>6000</v>
-      </c>
-      <c r="B62">
-        <v>5950</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63">
-        <v>6100</v>
-      </c>
-      <c r="B63">
-        <v>6040</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>6200</v>
-      </c>
-      <c r="B64">
-        <v>6140</v>
-      </c>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>6300</v>
-      </c>
-      <c r="B65">
-        <v>6245</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>6400</v>
-      </c>
-      <c r="B66">
-        <v>6350</v>
-      </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>6500</v>
-      </c>
-      <c r="B67">
-        <v>6445</v>
-      </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>6600</v>
-      </c>
-      <c r="B68">
-        <v>6545</v>
-      </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>6700</v>
-      </c>
-      <c r="B69">
-        <v>6650</v>
-      </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>6800</v>
-      </c>
-      <c r="B70">
-        <v>6750</v>
-      </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A71">
-        <v>6900</v>
-      </c>
-      <c r="B71">
-        <v>6850</v>
-      </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>7000</v>
-      </c>
-      <c r="B72">
-        <v>6950</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>7100</v>
-      </c>
-      <c r="B73">
-        <v>7050</v>
-      </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>7200</v>
-      </c>
-      <c r="B74">
-        <v>7150</v>
-      </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>7300</v>
-      </c>
-      <c r="B75">
-        <v>7250</v>
-      </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>7400</v>
-      </c>
-      <c r="B76">
-        <v>7350</v>
-      </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>7500</v>
-      </c>
-      <c r="B77">
-        <v>7450</v>
-      </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>7600</v>
-      </c>
-      <c r="B78">
-        <v>7560</v>
-      </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>7700</v>
-      </c>
-      <c r="B79">
-        <v>7660</v>
-      </c>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>7800</v>
-      </c>
-      <c r="B80">
-        <v>7770</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>7900</v>
-      </c>
-      <c r="B81">
-        <v>7860</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>8000</v>
-      </c>
-      <c r="B82">
-        <v>7965</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>8100</v>
-      </c>
-      <c r="B83">
-        <v>8075</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>8200</v>
-      </c>
-      <c r="B84">
-        <v>8018</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>8300</v>
-      </c>
-      <c r="B85">
-        <v>8285</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>8400</v>
-      </c>
-      <c r="B86">
-        <v>8345</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>8500</v>
-      </c>
-      <c r="B87">
-        <f>8345+110</f>
-        <v>8455</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB6BDCF8-29FB-406A-9D6E-BAFCDFC51D75}">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>200</v>
-      </c>
-      <c r="B4">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>300</v>
-      </c>
-      <c r="B5">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>400</v>
-      </c>
-      <c r="B6">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>500</v>
-      </c>
-      <c r="B7">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>600</v>
-      </c>
-      <c r="B8">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>700</v>
-      </c>
-      <c r="B9">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>800</v>
-      </c>
-      <c r="B10">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>900</v>
-      </c>
-      <c r="B11">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1000</v>
-      </c>
-      <c r="B12">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1100</v>
-      </c>
-      <c r="B13">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1200</v>
-      </c>
-      <c r="B14">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1300</v>
-      </c>
-      <c r="B15">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1400</v>
-      </c>
-      <c r="B16">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1500</v>
-      </c>
-      <c r="B17">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1600</v>
-      </c>
-      <c r="B18">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1700</v>
-      </c>
-      <c r="B19">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1800</v>
-      </c>
-      <c r="B20">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1900</v>
-      </c>
-      <c r="B21">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2000</v>
-      </c>
-      <c r="B22">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2100</v>
-      </c>
-      <c r="B23">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2200</v>
-      </c>
-      <c r="B24">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2300</v>
-      </c>
-      <c r="B25">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2400</v>
-      </c>
-      <c r="B26">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2500</v>
-      </c>
-      <c r="B27">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2600</v>
-      </c>
-      <c r="B28">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2700</v>
-      </c>
-      <c r="B29">
-        <v>2430</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{45A35489-D148-4BA8-9820-D3A4ACF2A8FD}">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>200</v>
-      </c>
-      <c r="B4">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>300</v>
-      </c>
-      <c r="B5">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>400</v>
-      </c>
-      <c r="B6">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>500</v>
-      </c>
-      <c r="B7">
-        <v>466</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>600</v>
-      </c>
-      <c r="B8">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>700</v>
-      </c>
-      <c r="B9">
-        <v>656</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>800</v>
-      </c>
-      <c r="B10">
-        <v>740</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>900</v>
-      </c>
-      <c r="B11">
-        <v>836</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1000</v>
-      </c>
-      <c r="B12">
-        <v>930</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1100</v>
-      </c>
-      <c r="B13">
-        <v>1016</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1200</v>
-      </c>
-      <c r="B14">
-        <v>1110</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1300</v>
-      </c>
-      <c r="B15">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1400</v>
-      </c>
-      <c r="B16">
-        <v>1296</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1500</v>
-      </c>
-      <c r="B17">
-        <v>1376</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1600</v>
-      </c>
-      <c r="B18">
-        <v>1470</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1700</v>
-      </c>
-      <c r="B19">
-        <v>1560</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1800</v>
-      </c>
-      <c r="B20">
-        <v>1646</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1900</v>
-      </c>
-      <c r="B21">
-        <v>1736</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2000</v>
-      </c>
-      <c r="B22">
-        <v>1826</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2100</v>
-      </c>
-      <c r="B23">
-        <v>1906</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2200</v>
-      </c>
-      <c r="B24">
-        <v>1990</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2300</v>
-      </c>
-      <c r="B25">
-        <v>2086</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2400</v>
-      </c>
-      <c r="B26">
-        <v>2176</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2500</v>
-      </c>
-      <c r="B27">
-        <v>2256</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2600</v>
-      </c>
-      <c r="B28">
-        <v>2346</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2700</v>
-      </c>
-      <c r="B29">
-        <v>2430</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A7C295E-C229-4447-9475-CA795BC8776A}">
-  <dimension ref="A1:B29"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="15.42578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>0</v>
-      </c>
-      <c r="B2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>100</v>
-      </c>
-      <c r="B3">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>200</v>
-      </c>
-      <c r="B4">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>300</v>
-      </c>
-      <c r="B5">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>400</v>
-      </c>
-      <c r="B6">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>500</v>
-      </c>
-      <c r="B7">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>600</v>
-      </c>
-      <c r="B8">
-        <v>560</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>700</v>
-      </c>
-      <c r="B9">
-        <v>655</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>800</v>
-      </c>
-      <c r="B10">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>900</v>
-      </c>
-      <c r="B11">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>1000</v>
-      </c>
-      <c r="B12">
-        <v>935</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>1100</v>
-      </c>
-      <c r="B13">
-        <v>1020</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>1200</v>
-      </c>
-      <c r="B14">
-        <v>1115</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>1300</v>
-      </c>
-      <c r="B15">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>1400</v>
-      </c>
-      <c r="B16">
-        <v>1300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>1500</v>
-      </c>
-      <c r="B17">
-        <v>1385</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>1600</v>
-      </c>
-      <c r="B18">
-        <v>1475</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>1700</v>
-      </c>
-      <c r="B19">
-        <v>1570</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>1800</v>
-      </c>
-      <c r="B20">
-        <v>1650</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>1900</v>
-      </c>
-      <c r="B21">
-        <v>1745</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>2000</v>
-      </c>
-      <c r="B22">
-        <v>1835</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>2100</v>
-      </c>
-      <c r="B23">
-        <v>1915</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>2200</v>
-      </c>
-      <c r="B24">
-        <v>2005</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>2300</v>
-      </c>
-      <c r="B25">
-        <v>2095</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>2400</v>
-      </c>
-      <c r="B26">
-        <v>2180</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>2500</v>
-      </c>
-      <c r="B27">
-        <v>2265</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>2600</v>
-      </c>
-      <c r="B28">
-        <v>2355</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>2700</v>
-      </c>
-      <c r="B29">
-        <v>2440</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/Table_Calib.xlsx
+++ b/Table_Calib.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Juan Pablo Lopez\PycharmProjects\ProjectJP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FDD417E-7D83-40F0-898C-161DBCD4ADA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D5CEC9C-03AC-4ECA-BFD2-68C4D86C3DE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="25980" windowHeight="11385" firstSheet="1" activeTab="3" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
+    <workbookView xWindow="10335" yWindow="1830" windowWidth="19980" windowHeight="11385" firstSheet="4" activeTab="9" xr2:uid="{273E2727-9C0C-40D0-8BC9-D4D7271E2075}"/>
   </bookViews>
   <sheets>
     <sheet name="X_axis" sheetId="1" r:id="rId1"/>
@@ -22,6 +22,7 @@
     <sheet name="Y_axis_RP_bkp2" sheetId="21" r:id="rId7"/>
     <sheet name="Y_axis_RP_bkp3" sheetId="22" r:id="rId8"/>
     <sheet name="bkp" sheetId="16" r:id="rId9"/>
+    <sheet name="Surface" sheetId="23" r:id="rId10"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -44,12 +45,27 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="7">
   <si>
     <t>Autocad_Measure</t>
   </si>
   <si>
     <t>Real_Measure</t>
+  </si>
+  <si>
+    <t>Autocad_X</t>
+  </si>
+  <si>
+    <t>Autocad_Y</t>
+  </si>
+  <si>
+    <t>Real_X</t>
+  </si>
+  <si>
+    <t>Real_Y</t>
+  </si>
+  <si>
+    <t>idx</t>
   </si>
 </sst>
 </file>
@@ -91,7 +107,14 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="2">
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -121,6 +144,24 @@
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{B5562EAA-2DE0-47C8-94BD-81224F7A0572}" name="Autocad_Measure"/>
     <tableColumn id="2" xr3:uid="{3FD259D3-91FA-4623-9830-9E01636967BA}" name="Real_Measure"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{4AD2171A-1E7D-4351-83B4-9F73A01BE6C4}" name="Table11" displayName="Table11" ref="A1:E206" totalsRowShown="0">
+  <autoFilter ref="A1:E206" xr:uid="{4AD2171A-1E7D-4351-83B4-9F73A01BE6C4}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{6383E5E5-3AB9-4156-8B44-7B75C10EEE93}" name="Autocad_X"/>
+    <tableColumn id="2" xr3:uid="{6377D7FE-8A31-4ACB-8B31-33F8A073CF51}" name="Autocad_Y"/>
+    <tableColumn id="3" xr3:uid="{0C851655-DC4F-4F17-8EE8-1F2F5005A1E0}" name="Real_X" dataDxfId="1">
+      <calculatedColumnFormula>Table11[[#This Row],[Autocad_X]]*1.1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E1101005-6865-4692-BDDD-1E11D64CAEDE}" name="Real_Y" dataDxfId="0">
+      <calculatedColumnFormula>Table11[[#This Row],[Autocad_Y]]*1.1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{1556320F-3929-4DA6-83F0-9CADBF95D437}" name="idx"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -699,6 +740,3940 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D01E870-CD54-467A-BFFA-3FF62B397F6F}">
+  <dimension ref="A1:E206"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="G215" sqref="G215"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.42578125" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>0</v>
+      </c>
+      <c r="D2">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>500</v>
+      </c>
+      <c r="B3">
+        <v>200</v>
+      </c>
+      <c r="C3">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>550</v>
+      </c>
+      <c r="D3">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>1000</v>
+      </c>
+      <c r="B4">
+        <v>200</v>
+      </c>
+      <c r="C4">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="D4">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1500</v>
+      </c>
+      <c r="B5">
+        <v>200</v>
+      </c>
+      <c r="C5">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1650.0000000000002</v>
+      </c>
+      <c r="D5">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2000</v>
+      </c>
+      <c r="B6">
+        <v>200</v>
+      </c>
+      <c r="C6">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="D6">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E6">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2500</v>
+      </c>
+      <c r="B7">
+        <v>200</v>
+      </c>
+      <c r="C7">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2750</v>
+      </c>
+      <c r="D7">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>3000</v>
+      </c>
+      <c r="B8">
+        <v>200</v>
+      </c>
+      <c r="C8">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="D8">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E8">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>3500</v>
+      </c>
+      <c r="B9">
+        <v>200</v>
+      </c>
+      <c r="C9">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="D9">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>4000</v>
+      </c>
+      <c r="B10">
+        <v>200</v>
+      </c>
+      <c r="C10">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4400</v>
+      </c>
+      <c r="D10">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>4500</v>
+      </c>
+      <c r="B11">
+        <v>200</v>
+      </c>
+      <c r="C11">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4950</v>
+      </c>
+      <c r="D11">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>5000</v>
+      </c>
+      <c r="B12">
+        <v>200</v>
+      </c>
+      <c r="C12">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>5500</v>
+      </c>
+      <c r="D12">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>5500</v>
+      </c>
+      <c r="B13">
+        <v>200</v>
+      </c>
+      <c r="C13">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6050.0000000000009</v>
+      </c>
+      <c r="D13">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>6000</v>
+      </c>
+      <c r="B14">
+        <v>200</v>
+      </c>
+      <c r="C14">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="D14">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>6500</v>
+      </c>
+      <c r="B15">
+        <v>200</v>
+      </c>
+      <c r="C15">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="D15">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E15">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>7000</v>
+      </c>
+      <c r="B16">
+        <v>200</v>
+      </c>
+      <c r="C16">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D16">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E16">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>7500</v>
+      </c>
+      <c r="B17">
+        <v>200</v>
+      </c>
+      <c r="C17">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8250</v>
+      </c>
+      <c r="D17">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E17">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>8000</v>
+      </c>
+      <c r="B18">
+        <v>200</v>
+      </c>
+      <c r="C18">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8800</v>
+      </c>
+      <c r="D18">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E18">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>8500</v>
+      </c>
+      <c r="B19">
+        <v>200</v>
+      </c>
+      <c r="C19">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>9350</v>
+      </c>
+      <c r="D19">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>220.00000000000003</v>
+      </c>
+      <c r="E19">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>500</v>
+      </c>
+      <c r="B20">
+        <v>400</v>
+      </c>
+      <c r="C20">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>550</v>
+      </c>
+      <c r="D20">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E20">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1000</v>
+      </c>
+      <c r="B21">
+        <v>400</v>
+      </c>
+      <c r="C21">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="D21">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E21">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1500</v>
+      </c>
+      <c r="B22">
+        <v>400</v>
+      </c>
+      <c r="C22">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1650.0000000000002</v>
+      </c>
+      <c r="D22">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E22">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>2000</v>
+      </c>
+      <c r="B23">
+        <v>400</v>
+      </c>
+      <c r="C23">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="D23">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E23">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>2500</v>
+      </c>
+      <c r="B24">
+        <v>400</v>
+      </c>
+      <c r="C24">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2750</v>
+      </c>
+      <c r="D24">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E24">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>3000</v>
+      </c>
+      <c r="B25">
+        <v>400</v>
+      </c>
+      <c r="C25">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="D25">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E25">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>3500</v>
+      </c>
+      <c r="B26">
+        <v>400</v>
+      </c>
+      <c r="C26">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="D26">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E26">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>4000</v>
+      </c>
+      <c r="B27">
+        <v>400</v>
+      </c>
+      <c r="C27">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4400</v>
+      </c>
+      <c r="D27">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E27">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4500</v>
+      </c>
+      <c r="B28">
+        <v>400</v>
+      </c>
+      <c r="C28">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4950</v>
+      </c>
+      <c r="D28">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E28">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>5000</v>
+      </c>
+      <c r="B29">
+        <v>400</v>
+      </c>
+      <c r="C29">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>5500</v>
+      </c>
+      <c r="D29">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E29">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>5500</v>
+      </c>
+      <c r="B30">
+        <v>400</v>
+      </c>
+      <c r="C30">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6050.0000000000009</v>
+      </c>
+      <c r="D30">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E30">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>6000</v>
+      </c>
+      <c r="B31">
+        <v>400</v>
+      </c>
+      <c r="C31">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="D31">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E31">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>6500</v>
+      </c>
+      <c r="B32">
+        <v>400</v>
+      </c>
+      <c r="C32">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="D32">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E32">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>7000</v>
+      </c>
+      <c r="B33">
+        <v>400</v>
+      </c>
+      <c r="C33">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D33">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E33">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>7500</v>
+      </c>
+      <c r="B34">
+        <v>400</v>
+      </c>
+      <c r="C34">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8250</v>
+      </c>
+      <c r="D34">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E34">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>8000</v>
+      </c>
+      <c r="B35">
+        <v>400</v>
+      </c>
+      <c r="C35">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8800</v>
+      </c>
+      <c r="D35">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E35">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>8500</v>
+      </c>
+      <c r="B36">
+        <v>400</v>
+      </c>
+      <c r="C36">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>9350</v>
+      </c>
+      <c r="D36">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>440.00000000000006</v>
+      </c>
+      <c r="E36">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>500</v>
+      </c>
+      <c r="B37">
+        <v>600</v>
+      </c>
+      <c r="C37">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>550</v>
+      </c>
+      <c r="D37">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E37">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1000</v>
+      </c>
+      <c r="B38">
+        <v>600</v>
+      </c>
+      <c r="C38">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="D38">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E38">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>1500</v>
+      </c>
+      <c r="B39">
+        <v>600</v>
+      </c>
+      <c r="C39">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1650.0000000000002</v>
+      </c>
+      <c r="D39">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E39">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2000</v>
+      </c>
+      <c r="B40">
+        <v>600</v>
+      </c>
+      <c r="C40">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="D40">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E40">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2500</v>
+      </c>
+      <c r="B41">
+        <v>600</v>
+      </c>
+      <c r="C41">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2750</v>
+      </c>
+      <c r="D41">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>3000</v>
+      </c>
+      <c r="B42">
+        <v>600</v>
+      </c>
+      <c r="C42">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="D42">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E42">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3500</v>
+      </c>
+      <c r="B43">
+        <v>600</v>
+      </c>
+      <c r="C43">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="D43">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E43">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4000</v>
+      </c>
+      <c r="B44">
+        <v>600</v>
+      </c>
+      <c r="C44">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4400</v>
+      </c>
+      <c r="D44">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E44">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>4500</v>
+      </c>
+      <c r="B45">
+        <v>600</v>
+      </c>
+      <c r="C45">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4950</v>
+      </c>
+      <c r="D45">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E45">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>5000</v>
+      </c>
+      <c r="B46">
+        <v>600</v>
+      </c>
+      <c r="C46">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>5500</v>
+      </c>
+      <c r="D46">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E46">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>5500</v>
+      </c>
+      <c r="B47">
+        <v>600</v>
+      </c>
+      <c r="C47">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6050.0000000000009</v>
+      </c>
+      <c r="D47">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E47">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>6000</v>
+      </c>
+      <c r="B48">
+        <v>600</v>
+      </c>
+      <c r="C48">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="D48">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E48">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>6500</v>
+      </c>
+      <c r="B49">
+        <v>600</v>
+      </c>
+      <c r="C49">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="D49">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E49">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>7000</v>
+      </c>
+      <c r="B50">
+        <v>600</v>
+      </c>
+      <c r="C50">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D50">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E50">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>7500</v>
+      </c>
+      <c r="B51">
+        <v>600</v>
+      </c>
+      <c r="C51">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8250</v>
+      </c>
+      <c r="D51">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E51">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>8000</v>
+      </c>
+      <c r="B52">
+        <v>600</v>
+      </c>
+      <c r="C52">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8800</v>
+      </c>
+      <c r="D52">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E52">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>8500</v>
+      </c>
+      <c r="B53">
+        <v>600</v>
+      </c>
+      <c r="C53">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>9350</v>
+      </c>
+      <c r="D53">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>660</v>
+      </c>
+      <c r="E53">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>500</v>
+      </c>
+      <c r="B54">
+        <v>800</v>
+      </c>
+      <c r="C54">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>550</v>
+      </c>
+      <c r="D54">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E54">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>1000</v>
+      </c>
+      <c r="B55">
+        <v>800</v>
+      </c>
+      <c r="C55">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="D55">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E55">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>1500</v>
+      </c>
+      <c r="B56">
+        <v>800</v>
+      </c>
+      <c r="C56">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1650.0000000000002</v>
+      </c>
+      <c r="D56">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E56">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>2000</v>
+      </c>
+      <c r="B57">
+        <v>800</v>
+      </c>
+      <c r="C57">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="D57">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E57">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2500</v>
+      </c>
+      <c r="B58">
+        <v>800</v>
+      </c>
+      <c r="C58">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2750</v>
+      </c>
+      <c r="D58">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E58">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3000</v>
+      </c>
+      <c r="B59">
+        <v>800</v>
+      </c>
+      <c r="C59">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="D59">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E59">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3500</v>
+      </c>
+      <c r="B60">
+        <v>800</v>
+      </c>
+      <c r="C60">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="D60">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E60">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>4000</v>
+      </c>
+      <c r="B61">
+        <v>800</v>
+      </c>
+      <c r="C61">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4400</v>
+      </c>
+      <c r="D61">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E61">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>4500</v>
+      </c>
+      <c r="B62">
+        <v>800</v>
+      </c>
+      <c r="C62">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4950</v>
+      </c>
+      <c r="D62">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E62">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>5000</v>
+      </c>
+      <c r="B63">
+        <v>800</v>
+      </c>
+      <c r="C63">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>5500</v>
+      </c>
+      <c r="D63">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E63">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>5500</v>
+      </c>
+      <c r="B64">
+        <v>800</v>
+      </c>
+      <c r="C64">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6050.0000000000009</v>
+      </c>
+      <c r="D64">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E64">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>6000</v>
+      </c>
+      <c r="B65">
+        <v>800</v>
+      </c>
+      <c r="C65">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="D65">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E65">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>6500</v>
+      </c>
+      <c r="B66">
+        <v>800</v>
+      </c>
+      <c r="C66">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="D66">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E66">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>7000</v>
+      </c>
+      <c r="B67">
+        <v>800</v>
+      </c>
+      <c r="C67">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D67">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E67">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>7500</v>
+      </c>
+      <c r="B68">
+        <v>800</v>
+      </c>
+      <c r="C68">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8250</v>
+      </c>
+      <c r="D68">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E68">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>8000</v>
+      </c>
+      <c r="B69">
+        <v>800</v>
+      </c>
+      <c r="C69">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8800</v>
+      </c>
+      <c r="D69">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E69">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>8500</v>
+      </c>
+      <c r="B70">
+        <v>800</v>
+      </c>
+      <c r="C70">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>9350</v>
+      </c>
+      <c r="D70">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>880.00000000000011</v>
+      </c>
+      <c r="E70">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>500</v>
+      </c>
+      <c r="B71">
+        <v>1000</v>
+      </c>
+      <c r="C71">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>550</v>
+      </c>
+      <c r="D71">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E71">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>1000</v>
+      </c>
+      <c r="B72">
+        <v>1000</v>
+      </c>
+      <c r="C72">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="D72">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E72">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>1500</v>
+      </c>
+      <c r="B73">
+        <v>1000</v>
+      </c>
+      <c r="C73">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1650.0000000000002</v>
+      </c>
+      <c r="D73">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E73">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>2000</v>
+      </c>
+      <c r="B74">
+        <v>1000</v>
+      </c>
+      <c r="C74">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="D74">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E74">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>2500</v>
+      </c>
+      <c r="B75">
+        <v>1000</v>
+      </c>
+      <c r="C75">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2750</v>
+      </c>
+      <c r="D75">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E75">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>3000</v>
+      </c>
+      <c r="B76">
+        <v>1000</v>
+      </c>
+      <c r="C76">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="D76">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E76">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>3500</v>
+      </c>
+      <c r="B77">
+        <v>1000</v>
+      </c>
+      <c r="C77">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="D77">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E77">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4000</v>
+      </c>
+      <c r="B78">
+        <v>1000</v>
+      </c>
+      <c r="C78">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4400</v>
+      </c>
+      <c r="D78">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E78">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4500</v>
+      </c>
+      <c r="B79">
+        <v>1000</v>
+      </c>
+      <c r="C79">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4950</v>
+      </c>
+      <c r="D79">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E79">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>5000</v>
+      </c>
+      <c r="B80">
+        <v>1000</v>
+      </c>
+      <c r="C80">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>5500</v>
+      </c>
+      <c r="D80">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E80">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>5500</v>
+      </c>
+      <c r="B81">
+        <v>1000</v>
+      </c>
+      <c r="C81">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6050.0000000000009</v>
+      </c>
+      <c r="D81">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E81">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>6000</v>
+      </c>
+      <c r="B82">
+        <v>1000</v>
+      </c>
+      <c r="C82">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="D82">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E82">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>6500</v>
+      </c>
+      <c r="B83">
+        <v>1000</v>
+      </c>
+      <c r="C83">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="D83">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E83">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>7000</v>
+      </c>
+      <c r="B84">
+        <v>1000</v>
+      </c>
+      <c r="C84">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D84">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>7500</v>
+      </c>
+      <c r="B85">
+        <v>1000</v>
+      </c>
+      <c r="C85">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8250</v>
+      </c>
+      <c r="D85">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>8000</v>
+      </c>
+      <c r="B86">
+        <v>1000</v>
+      </c>
+      <c r="C86">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8800</v>
+      </c>
+      <c r="D86">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>8500</v>
+      </c>
+      <c r="B87">
+        <v>1000</v>
+      </c>
+      <c r="C87">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>9350</v>
+      </c>
+      <c r="D87">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="E87">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>500</v>
+      </c>
+      <c r="B88">
+        <v>1200</v>
+      </c>
+      <c r="C88">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>550</v>
+      </c>
+      <c r="D88">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>1000</v>
+      </c>
+      <c r="B89">
+        <v>1200</v>
+      </c>
+      <c r="C89">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="D89">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>1500</v>
+      </c>
+      <c r="B90">
+        <v>1200</v>
+      </c>
+      <c r="C90">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1650.0000000000002</v>
+      </c>
+      <c r="D90">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>2000</v>
+      </c>
+      <c r="B91">
+        <v>1200</v>
+      </c>
+      <c r="C91">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="D91">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E91">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>2500</v>
+      </c>
+      <c r="B92">
+        <v>1200</v>
+      </c>
+      <c r="C92">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2750</v>
+      </c>
+      <c r="D92">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E92">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>3000</v>
+      </c>
+      <c r="B93">
+        <v>1200</v>
+      </c>
+      <c r="C93">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="D93">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E93">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>3500</v>
+      </c>
+      <c r="B94">
+        <v>1200</v>
+      </c>
+      <c r="C94">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="D94">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E94">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>4000</v>
+      </c>
+      <c r="B95">
+        <v>1200</v>
+      </c>
+      <c r="C95">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4400</v>
+      </c>
+      <c r="D95">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>4500</v>
+      </c>
+      <c r="B96">
+        <v>1200</v>
+      </c>
+      <c r="C96">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4950</v>
+      </c>
+      <c r="D96">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>5000</v>
+      </c>
+      <c r="B97">
+        <v>1200</v>
+      </c>
+      <c r="C97">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>5500</v>
+      </c>
+      <c r="D97">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5500</v>
+      </c>
+      <c r="B98">
+        <v>1200</v>
+      </c>
+      <c r="C98">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6050.0000000000009</v>
+      </c>
+      <c r="D98">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>6000</v>
+      </c>
+      <c r="B99">
+        <v>1200</v>
+      </c>
+      <c r="C99">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="D99">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E99">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>6500</v>
+      </c>
+      <c r="B100">
+        <v>1200</v>
+      </c>
+      <c r="C100">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="D100">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E100">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>7000</v>
+      </c>
+      <c r="B101">
+        <v>1200</v>
+      </c>
+      <c r="C101">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D101">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E101">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>7500</v>
+      </c>
+      <c r="B102">
+        <v>1200</v>
+      </c>
+      <c r="C102">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8250</v>
+      </c>
+      <c r="D102">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E102">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>8000</v>
+      </c>
+      <c r="B103">
+        <v>1200</v>
+      </c>
+      <c r="C103">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8800</v>
+      </c>
+      <c r="D103">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E103">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>8500</v>
+      </c>
+      <c r="B104">
+        <v>1200</v>
+      </c>
+      <c r="C104">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>9350</v>
+      </c>
+      <c r="D104">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1320</v>
+      </c>
+      <c r="E104">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>500</v>
+      </c>
+      <c r="B105">
+        <v>1400</v>
+      </c>
+      <c r="C105">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>550</v>
+      </c>
+      <c r="D105">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E105">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>1000</v>
+      </c>
+      <c r="B106">
+        <v>1400</v>
+      </c>
+      <c r="C106">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="D106">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E106">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>1500</v>
+      </c>
+      <c r="B107">
+        <v>1400</v>
+      </c>
+      <c r="C107">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1650.0000000000002</v>
+      </c>
+      <c r="D107">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E107">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>2000</v>
+      </c>
+      <c r="B108">
+        <v>1400</v>
+      </c>
+      <c r="C108">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="D108">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E108">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>2500</v>
+      </c>
+      <c r="B109">
+        <v>1400</v>
+      </c>
+      <c r="C109">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2750</v>
+      </c>
+      <c r="D109">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E109">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>3000</v>
+      </c>
+      <c r="B110">
+        <v>1400</v>
+      </c>
+      <c r="C110">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="D110">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E110">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>3500</v>
+      </c>
+      <c r="B111">
+        <v>1400</v>
+      </c>
+      <c r="C111">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="D111">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E111">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>4000</v>
+      </c>
+      <c r="B112">
+        <v>1400</v>
+      </c>
+      <c r="C112">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4400</v>
+      </c>
+      <c r="D112">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E112">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>4500</v>
+      </c>
+      <c r="B113">
+        <v>1400</v>
+      </c>
+      <c r="C113">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4950</v>
+      </c>
+      <c r="D113">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E113">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>5000</v>
+      </c>
+      <c r="B114">
+        <v>1400</v>
+      </c>
+      <c r="C114">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>5500</v>
+      </c>
+      <c r="D114">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E114">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>5500</v>
+      </c>
+      <c r="B115">
+        <v>1400</v>
+      </c>
+      <c r="C115">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6050.0000000000009</v>
+      </c>
+      <c r="D115">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E115">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>6000</v>
+      </c>
+      <c r="B116">
+        <v>1400</v>
+      </c>
+      <c r="C116">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="D116">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E116">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>6500</v>
+      </c>
+      <c r="B117">
+        <v>1400</v>
+      </c>
+      <c r="C117">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="D117">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E117">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>7000</v>
+      </c>
+      <c r="B118">
+        <v>1400</v>
+      </c>
+      <c r="C118">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D118">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E118">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>7500</v>
+      </c>
+      <c r="B119">
+        <v>1400</v>
+      </c>
+      <c r="C119">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8250</v>
+      </c>
+      <c r="D119">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E119">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>8000</v>
+      </c>
+      <c r="B120">
+        <v>1400</v>
+      </c>
+      <c r="C120">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8800</v>
+      </c>
+      <c r="D120">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E120">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>8500</v>
+      </c>
+      <c r="B121">
+        <v>1400</v>
+      </c>
+      <c r="C121">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>9350</v>
+      </c>
+      <c r="D121">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1540.0000000000002</v>
+      </c>
+      <c r="E121">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>500</v>
+      </c>
+      <c r="B122">
+        <v>1600</v>
+      </c>
+      <c r="C122">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>550</v>
+      </c>
+      <c r="D122">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E122">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>1000</v>
+      </c>
+      <c r="B123">
+        <v>1600</v>
+      </c>
+      <c r="C123">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="D123">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E123">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>1500</v>
+      </c>
+      <c r="B124">
+        <v>1600</v>
+      </c>
+      <c r="C124">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1650.0000000000002</v>
+      </c>
+      <c r="D124">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E124">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>2000</v>
+      </c>
+      <c r="B125">
+        <v>1600</v>
+      </c>
+      <c r="C125">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="D125">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E125">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>2500</v>
+      </c>
+      <c r="B126">
+        <v>1600</v>
+      </c>
+      <c r="C126">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2750</v>
+      </c>
+      <c r="D126">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E126">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>3000</v>
+      </c>
+      <c r="B127">
+        <v>1600</v>
+      </c>
+      <c r="C127">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="D127">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E127">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>3500</v>
+      </c>
+      <c r="B128">
+        <v>1600</v>
+      </c>
+      <c r="C128">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="D128">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E128">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>4000</v>
+      </c>
+      <c r="B129">
+        <v>1600</v>
+      </c>
+      <c r="C129">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4400</v>
+      </c>
+      <c r="D129">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E129">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>4500</v>
+      </c>
+      <c r="B130">
+        <v>1600</v>
+      </c>
+      <c r="C130">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4950</v>
+      </c>
+      <c r="D130">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E130">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>5000</v>
+      </c>
+      <c r="B131">
+        <v>1600</v>
+      </c>
+      <c r="C131">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>5500</v>
+      </c>
+      <c r="D131">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E131">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>5500</v>
+      </c>
+      <c r="B132">
+        <v>1600</v>
+      </c>
+      <c r="C132">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6050.0000000000009</v>
+      </c>
+      <c r="D132">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E132">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>6000</v>
+      </c>
+      <c r="B133">
+        <v>1600</v>
+      </c>
+      <c r="C133">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="D133">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E133">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>6500</v>
+      </c>
+      <c r="B134">
+        <v>1600</v>
+      </c>
+      <c r="C134">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="D134">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E134">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>7000</v>
+      </c>
+      <c r="B135">
+        <v>1600</v>
+      </c>
+      <c r="C135">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D135">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E135">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>7500</v>
+      </c>
+      <c r="B136">
+        <v>1600</v>
+      </c>
+      <c r="C136">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8250</v>
+      </c>
+      <c r="D136">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E136">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>8000</v>
+      </c>
+      <c r="B137">
+        <v>1600</v>
+      </c>
+      <c r="C137">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8800</v>
+      </c>
+      <c r="D137">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E137">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>8500</v>
+      </c>
+      <c r="B138">
+        <v>1600</v>
+      </c>
+      <c r="C138">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>9350</v>
+      </c>
+      <c r="D138">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1760.0000000000002</v>
+      </c>
+      <c r="E138">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>500</v>
+      </c>
+      <c r="B139">
+        <v>1800</v>
+      </c>
+      <c r="C139">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>550</v>
+      </c>
+      <c r="D139">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E139">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>1000</v>
+      </c>
+      <c r="B140">
+        <v>1800</v>
+      </c>
+      <c r="C140">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="D140">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E140">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>1500</v>
+      </c>
+      <c r="B141">
+        <v>1800</v>
+      </c>
+      <c r="C141">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1650.0000000000002</v>
+      </c>
+      <c r="D141">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E141">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>2000</v>
+      </c>
+      <c r="B142">
+        <v>1800</v>
+      </c>
+      <c r="C142">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="D142">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E142">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>2500</v>
+      </c>
+      <c r="B143">
+        <v>1800</v>
+      </c>
+      <c r="C143">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2750</v>
+      </c>
+      <c r="D143">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E143">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>3000</v>
+      </c>
+      <c r="B144">
+        <v>1800</v>
+      </c>
+      <c r="C144">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="D144">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E144">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>3500</v>
+      </c>
+      <c r="B145">
+        <v>1800</v>
+      </c>
+      <c r="C145">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="D145">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E145">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>4000</v>
+      </c>
+      <c r="B146">
+        <v>1800</v>
+      </c>
+      <c r="C146">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4400</v>
+      </c>
+      <c r="D146">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E146">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>4500</v>
+      </c>
+      <c r="B147">
+        <v>1800</v>
+      </c>
+      <c r="C147">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4950</v>
+      </c>
+      <c r="D147">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E147">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>5000</v>
+      </c>
+      <c r="B148">
+        <v>1800</v>
+      </c>
+      <c r="C148">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>5500</v>
+      </c>
+      <c r="D148">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E148">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>5500</v>
+      </c>
+      <c r="B149">
+        <v>1800</v>
+      </c>
+      <c r="C149">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6050.0000000000009</v>
+      </c>
+      <c r="D149">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E149">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>6000</v>
+      </c>
+      <c r="B150">
+        <v>1800</v>
+      </c>
+      <c r="C150">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="D150">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E150">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>6500</v>
+      </c>
+      <c r="B151">
+        <v>1800</v>
+      </c>
+      <c r="C151">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="D151">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E151">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>7000</v>
+      </c>
+      <c r="B152">
+        <v>1800</v>
+      </c>
+      <c r="C152">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D152">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E152">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>7500</v>
+      </c>
+      <c r="B153">
+        <v>1800</v>
+      </c>
+      <c r="C153">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8250</v>
+      </c>
+      <c r="D153">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E153">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>8000</v>
+      </c>
+      <c r="B154">
+        <v>1800</v>
+      </c>
+      <c r="C154">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8800</v>
+      </c>
+      <c r="D154">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E154">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>8500</v>
+      </c>
+      <c r="B155">
+        <v>1800</v>
+      </c>
+      <c r="C155">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>9350</v>
+      </c>
+      <c r="D155">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>1980.0000000000002</v>
+      </c>
+      <c r="E155">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>500</v>
+      </c>
+      <c r="B156">
+        <v>2000</v>
+      </c>
+      <c r="C156">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>550</v>
+      </c>
+      <c r="D156">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E156">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>1000</v>
+      </c>
+      <c r="B157">
+        <v>2000</v>
+      </c>
+      <c r="C157">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="D157">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E157">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>1500</v>
+      </c>
+      <c r="B158">
+        <v>2000</v>
+      </c>
+      <c r="C158">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1650.0000000000002</v>
+      </c>
+      <c r="D158">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E158">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>2000</v>
+      </c>
+      <c r="B159">
+        <v>2000</v>
+      </c>
+      <c r="C159">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="D159">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E159">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>2500</v>
+      </c>
+      <c r="B160">
+        <v>2000</v>
+      </c>
+      <c r="C160">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2750</v>
+      </c>
+      <c r="D160">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E160">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>3000</v>
+      </c>
+      <c r="B161">
+        <v>2000</v>
+      </c>
+      <c r="C161">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="D161">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E161">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>3500</v>
+      </c>
+      <c r="B162">
+        <v>2000</v>
+      </c>
+      <c r="C162">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="D162">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E162">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>4000</v>
+      </c>
+      <c r="B163">
+        <v>2000</v>
+      </c>
+      <c r="C163">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4400</v>
+      </c>
+      <c r="D163">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E163">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>4500</v>
+      </c>
+      <c r="B164">
+        <v>2000</v>
+      </c>
+      <c r="C164">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4950</v>
+      </c>
+      <c r="D164">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E164">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>5000</v>
+      </c>
+      <c r="B165">
+        <v>2000</v>
+      </c>
+      <c r="C165">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>5500</v>
+      </c>
+      <c r="D165">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E165">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>5500</v>
+      </c>
+      <c r="B166">
+        <v>2000</v>
+      </c>
+      <c r="C166">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6050.0000000000009</v>
+      </c>
+      <c r="D166">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E166">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>6000</v>
+      </c>
+      <c r="B167">
+        <v>2000</v>
+      </c>
+      <c r="C167">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="D167">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E167">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>6500</v>
+      </c>
+      <c r="B168">
+        <v>2000</v>
+      </c>
+      <c r="C168">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="D168">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E168">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>7000</v>
+      </c>
+      <c r="B169">
+        <v>2000</v>
+      </c>
+      <c r="C169">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D169">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E169">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>7500</v>
+      </c>
+      <c r="B170">
+        <v>2000</v>
+      </c>
+      <c r="C170">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8250</v>
+      </c>
+      <c r="D170">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E170">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>8000</v>
+      </c>
+      <c r="B171">
+        <v>2000</v>
+      </c>
+      <c r="C171">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8800</v>
+      </c>
+      <c r="D171">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E171">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>8500</v>
+      </c>
+      <c r="B172">
+        <v>2000</v>
+      </c>
+      <c r="C172">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>9350</v>
+      </c>
+      <c r="D172">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="E172">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>500</v>
+      </c>
+      <c r="B173">
+        <v>2200</v>
+      </c>
+      <c r="C173">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>550</v>
+      </c>
+      <c r="D173">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E173">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>1000</v>
+      </c>
+      <c r="B174">
+        <v>2200</v>
+      </c>
+      <c r="C174">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="D174">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E174">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>1500</v>
+      </c>
+      <c r="B175">
+        <v>2200</v>
+      </c>
+      <c r="C175">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1650.0000000000002</v>
+      </c>
+      <c r="D175">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E175">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>2000</v>
+      </c>
+      <c r="B176">
+        <v>2200</v>
+      </c>
+      <c r="C176">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="D176">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E176">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>2500</v>
+      </c>
+      <c r="B177">
+        <v>2200</v>
+      </c>
+      <c r="C177">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2750</v>
+      </c>
+      <c r="D177">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E177">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>3000</v>
+      </c>
+      <c r="B178">
+        <v>2200</v>
+      </c>
+      <c r="C178">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="D178">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E178">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>3500</v>
+      </c>
+      <c r="B179">
+        <v>2200</v>
+      </c>
+      <c r="C179">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="D179">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E179">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>4000</v>
+      </c>
+      <c r="B180">
+        <v>2200</v>
+      </c>
+      <c r="C180">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4400</v>
+      </c>
+      <c r="D180">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E180">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>4500</v>
+      </c>
+      <c r="B181">
+        <v>2200</v>
+      </c>
+      <c r="C181">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4950</v>
+      </c>
+      <c r="D181">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E181">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>5000</v>
+      </c>
+      <c r="B182">
+        <v>2200</v>
+      </c>
+      <c r="C182">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>5500</v>
+      </c>
+      <c r="D182">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E182">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>5500</v>
+      </c>
+      <c r="B183">
+        <v>2200</v>
+      </c>
+      <c r="C183">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6050.0000000000009</v>
+      </c>
+      <c r="D183">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E183">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>6000</v>
+      </c>
+      <c r="B184">
+        <v>2200</v>
+      </c>
+      <c r="C184">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="D184">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E184">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>6500</v>
+      </c>
+      <c r="B185">
+        <v>2200</v>
+      </c>
+      <c r="C185">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="D185">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E185">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>7000</v>
+      </c>
+      <c r="B186">
+        <v>2200</v>
+      </c>
+      <c r="C186">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D186">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E186">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>7500</v>
+      </c>
+      <c r="B187">
+        <v>2200</v>
+      </c>
+      <c r="C187">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8250</v>
+      </c>
+      <c r="D187">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E187">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>8000</v>
+      </c>
+      <c r="B188">
+        <v>2200</v>
+      </c>
+      <c r="C188">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8800</v>
+      </c>
+      <c r="D188">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E188">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>8500</v>
+      </c>
+      <c r="B189">
+        <v>2200</v>
+      </c>
+      <c r="C189">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>9350</v>
+      </c>
+      <c r="D189">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2420</v>
+      </c>
+      <c r="E189">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>500</v>
+      </c>
+      <c r="B190">
+        <v>2400</v>
+      </c>
+      <c r="C190">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>550</v>
+      </c>
+      <c r="D190">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E190">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>1000</v>
+      </c>
+      <c r="B191">
+        <v>2400</v>
+      </c>
+      <c r="C191">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1100</v>
+      </c>
+      <c r="D191">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E191">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>1500</v>
+      </c>
+      <c r="B192">
+        <v>2400</v>
+      </c>
+      <c r="C192">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>1650.0000000000002</v>
+      </c>
+      <c r="D192">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E192">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>2000</v>
+      </c>
+      <c r="B193">
+        <v>2400</v>
+      </c>
+      <c r="C193">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2200</v>
+      </c>
+      <c r="D193">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E193">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>2500</v>
+      </c>
+      <c r="B194">
+        <v>2400</v>
+      </c>
+      <c r="C194">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>2750</v>
+      </c>
+      <c r="D194">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E194">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>3000</v>
+      </c>
+      <c r="B195">
+        <v>2400</v>
+      </c>
+      <c r="C195">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3300.0000000000005</v>
+      </c>
+      <c r="D195">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E195">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>3500</v>
+      </c>
+      <c r="B196">
+        <v>2400</v>
+      </c>
+      <c r="C196">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>3850.0000000000005</v>
+      </c>
+      <c r="D196">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E196">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>4000</v>
+      </c>
+      <c r="B197">
+        <v>2400</v>
+      </c>
+      <c r="C197">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4400</v>
+      </c>
+      <c r="D197">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E197">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>4500</v>
+      </c>
+      <c r="B198">
+        <v>2400</v>
+      </c>
+      <c r="C198">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>4950</v>
+      </c>
+      <c r="D198">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E198">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>5000</v>
+      </c>
+      <c r="B199">
+        <v>2400</v>
+      </c>
+      <c r="C199">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>5500</v>
+      </c>
+      <c r="D199">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E199">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>5500</v>
+      </c>
+      <c r="B200">
+        <v>2400</v>
+      </c>
+      <c r="C200">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6050.0000000000009</v>
+      </c>
+      <c r="D200">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E200">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>6000</v>
+      </c>
+      <c r="B201">
+        <v>2400</v>
+      </c>
+      <c r="C201">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>6600.0000000000009</v>
+      </c>
+      <c r="D201">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E201">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>6500</v>
+      </c>
+      <c r="B202">
+        <v>2400</v>
+      </c>
+      <c r="C202">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7150.0000000000009</v>
+      </c>
+      <c r="D202">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E202">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>7000</v>
+      </c>
+      <c r="B203">
+        <v>2400</v>
+      </c>
+      <c r="C203">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>7700.0000000000009</v>
+      </c>
+      <c r="D203">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E203">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>7500</v>
+      </c>
+      <c r="B204">
+        <v>2400</v>
+      </c>
+      <c r="C204">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8250</v>
+      </c>
+      <c r="D204">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E204">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>8000</v>
+      </c>
+      <c r="B205">
+        <v>2400</v>
+      </c>
+      <c r="C205">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>8800</v>
+      </c>
+      <c r="D205">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E205">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>8500</v>
+      </c>
+      <c r="B206">
+        <v>2400</v>
+      </c>
+      <c r="C206">
+        <f>Table11[[#This Row],[Autocad_X]]*1.1</f>
+        <v>9350</v>
+      </c>
+      <c r="D206">
+        <f>Table11[[#This Row],[Autocad_Y]]*1.1</f>
+        <v>2640</v>
+      </c>
+      <c r="E206">
+        <v>204</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4773F7A4-FCA6-46D8-B7F7-454AF84B3CD1}">
   <dimension ref="A1:B29"/>
@@ -1683,7 +5658,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7104EA60-CE70-462D-A659-3DF377CD5840}">
   <dimension ref="A1:B29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
@@ -3165,7 +7140,7 @@
   <dimension ref="A1:B29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:C1048576"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
